--- a/ЗАВОДЫ/МИРАТОРГ/2025/06,25/23,06,25 Мираторг КИ Ташкент/дв 23,06,25 тшрсч мртрг ки от Лыгина v2.xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/06,25/23,06,25 Мираторг КИ Ташкент/дв 23,06,25 тшрсч мртрг ки от Лыгина v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\06,25\23,06,25 Мираторг КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968D9D99-3FBF-4E85-9D60-4C1BF107504B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F8FD8C-ADB7-43F1-BF77-EC89C539D2E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AI$22</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -219,6 +219,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / на вывод / СРОКИ (17,03,25)</t>
     </r>
@@ -239,15 +241,14 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / СРОКИ (09,03,25; 13,03,25)</t>
     </r>
   </si>
   <si>
     <t>заказ</t>
-  </si>
-  <si>
-    <t>30,06,</t>
   </si>
   <si>
     <t>вес кор.</t>
@@ -257,6 +258,12 @@
   </si>
   <si>
     <t>ВЕС</t>
+  </si>
+  <si>
+    <t>07,07,</t>
+  </si>
+  <si>
+    <t>исправлена дата отгрузки</t>
   </si>
 </sst>
 </file>
@@ -278,17 +285,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -389,11 +402,11 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3252,7 +3265,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="bottomRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,7 +3285,7 @@
     <col min="21" max="30" width="6" customWidth="1"/>
     <col min="31" max="31" width="36.5703125" customWidth="1"/>
     <col min="32" max="32" width="7" customWidth="1"/>
-    <col min="33" max="33" width="7.85546875" style="15" customWidth="1"/>
+    <col min="33" max="33" width="7.85546875" style="14" customWidth="1"/>
     <col min="34" max="50" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3309,7 +3322,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
-      <c r="AG1" s="12"/>
+      <c r="AG1" s="11"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
@@ -3344,7 +3357,9 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="11"/>
+      <c r="P2" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -3361,7 +3376,7 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
-      <c r="AG2" s="12"/>
+      <c r="AG2" s="11"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
@@ -3477,14 +3492,14 @@
       <c r="AF3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AG3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="AI3" s="14" t="s">
-        <v>62</v>
       </c>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
@@ -3523,7 +3538,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -3561,7 +3576,7 @@
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="12"/>
+      <c r="AG4" s="11"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
@@ -3676,7 +3691,7 @@
         <f>SUM(AF6:AF500)</f>
         <v>595.20000000000005</v>
       </c>
-      <c r="AG5" s="12"/>
+      <c r="AG5" s="11"/>
       <c r="AH5" s="4">
         <f t="shared" ref="AH5:AI5" si="3">SUM(AH6:AH499)</f>
         <v>295</v>
@@ -3794,7 +3809,7 @@
         <f t="shared" ref="AF6:AF22" si="5">G6*P6</f>
         <v>64</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AG6" s="11">
         <v>2.4</v>
       </c>
       <c r="AH6" s="1">
@@ -3912,7 +3927,7 @@
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AG7" s="11">
         <v>1.8</v>
       </c>
       <c r="AH7" s="1">
@@ -4030,7 +4045,7 @@
         <f t="shared" si="5"/>
         <v>56.4</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AG8" s="11">
         <v>2.82</v>
       </c>
       <c r="AH8" s="1">
@@ -4146,7 +4161,7 @@
         <f t="shared" si="5"/>
         <v>18.799999999999997</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AG9" s="11">
         <v>2.82</v>
       </c>
       <c r="AH9" s="1">
@@ -4262,7 +4277,7 @@
         <f t="shared" si="5"/>
         <v>18.799999999999997</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AG10" s="11">
         <v>2.82</v>
       </c>
       <c r="AH10" s="1">
@@ -4376,7 +4391,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AG11" s="11">
         <v>2.25</v>
       </c>
       <c r="AH11" s="1">
@@ -4492,7 +4507,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AG12" s="11">
         <v>2.25</v>
       </c>
       <c r="AH12" s="1">
@@ -4608,7 +4623,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AG13" s="11">
         <v>2.25</v>
       </c>
       <c r="AH13" s="1">
@@ -4726,7 +4741,7 @@
         <f t="shared" si="5"/>
         <v>17.2</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AG14" s="11">
         <v>2.58</v>
       </c>
       <c r="AH14" s="1">
@@ -4840,7 +4855,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AG15" s="11">
         <v>2.25</v>
       </c>
       <c r="AH15" s="1">
@@ -4954,7 +4969,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG16" s="12">
+      <c r="AG16" s="11">
         <v>1.68</v>
       </c>
       <c r="AH16" s="1">
@@ -5068,7 +5083,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AG17" s="11">
         <v>1.7999999999999998</v>
       </c>
       <c r="AH17" s="1">
@@ -5182,7 +5197,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AG18" s="11">
         <v>1.8</v>
       </c>
       <c r="AH18" s="1">
@@ -5298,7 +5313,7 @@
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AG19" s="11">
         <v>2</v>
       </c>
       <c r="AH19" s="1">
@@ -5414,7 +5429,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG20" s="12">
+      <c r="AG20" s="11">
         <v>1.98</v>
       </c>
       <c r="AH20" s="1">
@@ -5530,7 +5545,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AG21" s="12">
+      <c r="AG21" s="11">
         <v>2.25</v>
       </c>
       <c r="AH21" s="1">
@@ -5648,7 +5663,7 @@
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="AG22" s="12">
+      <c r="AG22" s="11">
         <v>1.8</v>
       </c>
       <c r="AH22" s="1">
@@ -5708,7 +5723,7 @@
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="11"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
@@ -5760,7 +5775,7 @@
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
-      <c r="AG24" s="12"/>
+      <c r="AG24" s="11"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
@@ -5812,7 +5827,7 @@
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="12"/>
+      <c r="AG25" s="11"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -5864,7 +5879,7 @@
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="11"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -5916,7 +5931,7 @@
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="12"/>
+      <c r="AG27" s="11"/>
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -5968,7 +5983,7 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="12"/>
+      <c r="AG28" s="11"/>
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
@@ -6020,7 +6035,7 @@
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="12"/>
+      <c r="AG29" s="11"/>
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
@@ -6072,7 +6087,7 @@
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="12"/>
+      <c r="AG30" s="11"/>
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -6124,7 +6139,7 @@
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="12"/>
+      <c r="AG31" s="11"/>
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
@@ -6176,7 +6191,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="11"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
@@ -6228,7 +6243,7 @@
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="11"/>
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
@@ -6280,7 +6295,7 @@
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="12"/>
+      <c r="AG34" s="11"/>
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
@@ -6332,7 +6347,7 @@
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="11"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
@@ -6384,7 +6399,7 @@
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
-      <c r="AG36" s="12"/>
+      <c r="AG36" s="11"/>
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
@@ -6436,7 +6451,7 @@
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37" s="12"/>
+      <c r="AG37" s="11"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
@@ -6488,7 +6503,7 @@
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
-      <c r="AG38" s="12"/>
+      <c r="AG38" s="11"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
@@ -6540,7 +6555,7 @@
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="12"/>
+      <c r="AG39" s="11"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
@@ -6592,7 +6607,7 @@
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
-      <c r="AG40" s="12"/>
+      <c r="AG40" s="11"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
@@ -6644,7 +6659,7 @@
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="12"/>
+      <c r="AG41" s="11"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
@@ -6696,7 +6711,7 @@
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
-      <c r="AG42" s="12"/>
+      <c r="AG42" s="11"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
       <c r="AJ42" s="1"/>
@@ -6748,7 +6763,7 @@
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="12"/>
+      <c r="AG43" s="11"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
       <c r="AJ43" s="1"/>
@@ -6800,7 +6815,7 @@
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
-      <c r="AG44" s="12"/>
+      <c r="AG44" s="11"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
       <c r="AJ44" s="1"/>
@@ -6852,7 +6867,7 @@
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="12"/>
+      <c r="AG45" s="11"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
       <c r="AJ45" s="1"/>
@@ -6904,7 +6919,7 @@
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
-      <c r="AG46" s="12"/>
+      <c r="AG46" s="11"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
@@ -6956,7 +6971,7 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="12"/>
+      <c r="AG47" s="11"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
@@ -7008,7 +7023,7 @@
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
-      <c r="AG48" s="12"/>
+      <c r="AG48" s="11"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
@@ -7060,7 +7075,7 @@
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49" s="12"/>
+      <c r="AG49" s="11"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
       <c r="AJ49" s="1"/>
@@ -7112,7 +7127,7 @@
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
-      <c r="AG50" s="12"/>
+      <c r="AG50" s="11"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
       <c r="AJ50" s="1"/>
@@ -7164,7 +7179,7 @@
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
-      <c r="AG51" s="12"/>
+      <c r="AG51" s="11"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
@@ -7216,7 +7231,7 @@
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
-      <c r="AG52" s="12"/>
+      <c r="AG52" s="11"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
       <c r="AJ52" s="1"/>
@@ -7268,7 +7283,7 @@
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
-      <c r="AG53" s="12"/>
+      <c r="AG53" s="11"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
       <c r="AJ53" s="1"/>
@@ -7320,7 +7335,7 @@
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
-      <c r="AG54" s="12"/>
+      <c r="AG54" s="11"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -7372,7 +7387,7 @@
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
-      <c r="AG55" s="12"/>
+      <c r="AG55" s="11"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
@@ -7424,7 +7439,7 @@
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
-      <c r="AG56" s="12"/>
+      <c r="AG56" s="11"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
@@ -7476,7 +7491,7 @@
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
-      <c r="AG57" s="12"/>
+      <c r="AG57" s="11"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
@@ -7528,7 +7543,7 @@
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
-      <c r="AG58" s="12"/>
+      <c r="AG58" s="11"/>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
@@ -7580,7 +7595,7 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="12"/>
+      <c r="AG59" s="11"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -7632,7 +7647,7 @@
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
-      <c r="AG60" s="12"/>
+      <c r="AG60" s="11"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
@@ -7684,7 +7699,7 @@
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
-      <c r="AG61" s="12"/>
+      <c r="AG61" s="11"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
@@ -7736,7 +7751,7 @@
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
-      <c r="AG62" s="12"/>
+      <c r="AG62" s="11"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
@@ -7788,7 +7803,7 @@
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
-      <c r="AG63" s="12"/>
+      <c r="AG63" s="11"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
@@ -7840,7 +7855,7 @@
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
-      <c r="AG64" s="12"/>
+      <c r="AG64" s="11"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
@@ -7892,7 +7907,7 @@
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
-      <c r="AG65" s="12"/>
+      <c r="AG65" s="11"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
@@ -7944,7 +7959,7 @@
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
-      <c r="AG66" s="12"/>
+      <c r="AG66" s="11"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
@@ -7996,7 +8011,7 @@
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
-      <c r="AG67" s="12"/>
+      <c r="AG67" s="11"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
@@ -8048,7 +8063,7 @@
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
-      <c r="AG68" s="12"/>
+      <c r="AG68" s="11"/>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
@@ -8100,7 +8115,7 @@
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
-      <c r="AG69" s="12"/>
+      <c r="AG69" s="11"/>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
@@ -8152,7 +8167,7 @@
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
-      <c r="AG70" s="12"/>
+      <c r="AG70" s="11"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
@@ -8204,7 +8219,7 @@
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
-      <c r="AG71" s="12"/>
+      <c r="AG71" s="11"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
@@ -8256,7 +8271,7 @@
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
-      <c r="AG72" s="12"/>
+      <c r="AG72" s="11"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
@@ -8308,7 +8323,7 @@
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
-      <c r="AG73" s="12"/>
+      <c r="AG73" s="11"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
@@ -8360,7 +8375,7 @@
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
-      <c r="AG74" s="12"/>
+      <c r="AG74" s="11"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
@@ -8412,7 +8427,7 @@
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
-      <c r="AG75" s="12"/>
+      <c r="AG75" s="11"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
@@ -8464,7 +8479,7 @@
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
-      <c r="AG76" s="12"/>
+      <c r="AG76" s="11"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
@@ -8516,7 +8531,7 @@
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
-      <c r="AG77" s="12"/>
+      <c r="AG77" s="11"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
@@ -8568,7 +8583,7 @@
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
-      <c r="AG78" s="12"/>
+      <c r="AG78" s="11"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
@@ -8620,7 +8635,7 @@
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
-      <c r="AG79" s="12"/>
+      <c r="AG79" s="11"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
       <c r="AJ79" s="1"/>
@@ -8672,7 +8687,7 @@
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
-      <c r="AG80" s="12"/>
+      <c r="AG80" s="11"/>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
@@ -8724,7 +8739,7 @@
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
-      <c r="AG81" s="12"/>
+      <c r="AG81" s="11"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
       <c r="AJ81" s="1"/>
@@ -8776,7 +8791,7 @@
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
-      <c r="AG82" s="12"/>
+      <c r="AG82" s="11"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
       <c r="AJ82" s="1"/>
@@ -8828,7 +8843,7 @@
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
-      <c r="AG83" s="12"/>
+      <c r="AG83" s="11"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
@@ -8880,7 +8895,7 @@
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
-      <c r="AG84" s="12"/>
+      <c r="AG84" s="11"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
@@ -8932,7 +8947,7 @@
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
-      <c r="AG85" s="12"/>
+      <c r="AG85" s="11"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
@@ -8984,7 +8999,7 @@
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
-      <c r="AG86" s="12"/>
+      <c r="AG86" s="11"/>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
@@ -9036,7 +9051,7 @@
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
-      <c r="AG87" s="12"/>
+      <c r="AG87" s="11"/>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
@@ -9088,7 +9103,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
-      <c r="AG88" s="12"/>
+      <c r="AG88" s="11"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
@@ -9140,7 +9155,7 @@
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
-      <c r="AG89" s="12"/>
+      <c r="AG89" s="11"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
@@ -9192,7 +9207,7 @@
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
-      <c r="AG90" s="12"/>
+      <c r="AG90" s="11"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
@@ -9244,7 +9259,7 @@
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
-      <c r="AG91" s="12"/>
+      <c r="AG91" s="11"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
@@ -9296,7 +9311,7 @@
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
-      <c r="AG92" s="12"/>
+      <c r="AG92" s="11"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
       <c r="AJ92" s="1"/>
@@ -9348,7 +9363,7 @@
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
-      <c r="AG93" s="12"/>
+      <c r="AG93" s="11"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
       <c r="AJ93" s="1"/>
@@ -9400,7 +9415,7 @@
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
-      <c r="AG94" s="12"/>
+      <c r="AG94" s="11"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
       <c r="AJ94" s="1"/>
@@ -9452,7 +9467,7 @@
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
-      <c r="AG95" s="12"/>
+      <c r="AG95" s="11"/>
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
       <c r="AJ95" s="1"/>
@@ -9504,7 +9519,7 @@
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
-      <c r="AG96" s="12"/>
+      <c r="AG96" s="11"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
@@ -9556,7 +9571,7 @@
       <c r="AD97" s="1"/>
       <c r="AE97" s="1"/>
       <c r="AF97" s="1"/>
-      <c r="AG97" s="12"/>
+      <c r="AG97" s="11"/>
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
       <c r="AJ97" s="1"/>
@@ -9608,7 +9623,7 @@
       <c r="AD98" s="1"/>
       <c r="AE98" s="1"/>
       <c r="AF98" s="1"/>
-      <c r="AG98" s="12"/>
+      <c r="AG98" s="11"/>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
       <c r="AJ98" s="1"/>
@@ -9660,7 +9675,7 @@
       <c r="AD99" s="1"/>
       <c r="AE99" s="1"/>
       <c r="AF99" s="1"/>
-      <c r="AG99" s="12"/>
+      <c r="AG99" s="11"/>
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
       <c r="AJ99" s="1"/>
@@ -9712,7 +9727,7 @@
       <c r="AD100" s="1"/>
       <c r="AE100" s="1"/>
       <c r="AF100" s="1"/>
-      <c r="AG100" s="12"/>
+      <c r="AG100" s="11"/>
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
       <c r="AJ100" s="1"/>
@@ -9764,7 +9779,7 @@
       <c r="AD101" s="1"/>
       <c r="AE101" s="1"/>
       <c r="AF101" s="1"/>
-      <c r="AG101" s="12"/>
+      <c r="AG101" s="11"/>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
       <c r="AJ101" s="1"/>
@@ -9816,7 +9831,7 @@
       <c r="AD102" s="1"/>
       <c r="AE102" s="1"/>
       <c r="AF102" s="1"/>
-      <c r="AG102" s="12"/>
+      <c r="AG102" s="11"/>
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
@@ -9868,7 +9883,7 @@
       <c r="AD103" s="1"/>
       <c r="AE103" s="1"/>
       <c r="AF103" s="1"/>
-      <c r="AG103" s="12"/>
+      <c r="AG103" s="11"/>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
       <c r="AJ103" s="1"/>
@@ -9920,7 +9935,7 @@
       <c r="AD104" s="1"/>
       <c r="AE104" s="1"/>
       <c r="AF104" s="1"/>
-      <c r="AG104" s="12"/>
+      <c r="AG104" s="11"/>
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
       <c r="AJ104" s="1"/>
@@ -9972,7 +9987,7 @@
       <c r="AD105" s="1"/>
       <c r="AE105" s="1"/>
       <c r="AF105" s="1"/>
-      <c r="AG105" s="12"/>
+      <c r="AG105" s="11"/>
       <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
       <c r="AJ105" s="1"/>
@@ -10024,7 +10039,7 @@
       <c r="AD106" s="1"/>
       <c r="AE106" s="1"/>
       <c r="AF106" s="1"/>
-      <c r="AG106" s="12"/>
+      <c r="AG106" s="11"/>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
       <c r="AJ106" s="1"/>
@@ -10076,7 +10091,7 @@
       <c r="AD107" s="1"/>
       <c r="AE107" s="1"/>
       <c r="AF107" s="1"/>
-      <c r="AG107" s="12"/>
+      <c r="AG107" s="11"/>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
       <c r="AJ107" s="1"/>
@@ -10128,7 +10143,7 @@
       <c r="AD108" s="1"/>
       <c r="AE108" s="1"/>
       <c r="AF108" s="1"/>
-      <c r="AG108" s="12"/>
+      <c r="AG108" s="11"/>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
       <c r="AJ108" s="1"/>
@@ -10180,7 +10195,7 @@
       <c r="AD109" s="1"/>
       <c r="AE109" s="1"/>
       <c r="AF109" s="1"/>
-      <c r="AG109" s="12"/>
+      <c r="AG109" s="11"/>
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
       <c r="AJ109" s="1"/>
@@ -10232,7 +10247,7 @@
       <c r="AD110" s="1"/>
       <c r="AE110" s="1"/>
       <c r="AF110" s="1"/>
-      <c r="AG110" s="12"/>
+      <c r="AG110" s="11"/>
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
       <c r="AJ110" s="1"/>
@@ -10284,7 +10299,7 @@
       <c r="AD111" s="1"/>
       <c r="AE111" s="1"/>
       <c r="AF111" s="1"/>
-      <c r="AG111" s="12"/>
+      <c r="AG111" s="11"/>
       <c r="AH111" s="1"/>
       <c r="AI111" s="1"/>
       <c r="AJ111" s="1"/>
@@ -10336,7 +10351,7 @@
       <c r="AD112" s="1"/>
       <c r="AE112" s="1"/>
       <c r="AF112" s="1"/>
-      <c r="AG112" s="12"/>
+      <c r="AG112" s="11"/>
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
       <c r="AJ112" s="1"/>
@@ -10388,7 +10403,7 @@
       <c r="AD113" s="1"/>
       <c r="AE113" s="1"/>
       <c r="AF113" s="1"/>
-      <c r="AG113" s="12"/>
+      <c r="AG113" s="11"/>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
       <c r="AJ113" s="1"/>
@@ -10440,7 +10455,7 @@
       <c r="AD114" s="1"/>
       <c r="AE114" s="1"/>
       <c r="AF114" s="1"/>
-      <c r="AG114" s="12"/>
+      <c r="AG114" s="11"/>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
       <c r="AJ114" s="1"/>
@@ -10492,7 +10507,7 @@
       <c r="AD115" s="1"/>
       <c r="AE115" s="1"/>
       <c r="AF115" s="1"/>
-      <c r="AG115" s="12"/>
+      <c r="AG115" s="11"/>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
       <c r="AJ115" s="1"/>
@@ -10544,7 +10559,7 @@
       <c r="AD116" s="1"/>
       <c r="AE116" s="1"/>
       <c r="AF116" s="1"/>
-      <c r="AG116" s="12"/>
+      <c r="AG116" s="11"/>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1"/>
       <c r="AJ116" s="1"/>
@@ -10596,7 +10611,7 @@
       <c r="AD117" s="1"/>
       <c r="AE117" s="1"/>
       <c r="AF117" s="1"/>
-      <c r="AG117" s="12"/>
+      <c r="AG117" s="11"/>
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
       <c r="AJ117" s="1"/>
@@ -10648,7 +10663,7 @@
       <c r="AD118" s="1"/>
       <c r="AE118" s="1"/>
       <c r="AF118" s="1"/>
-      <c r="AG118" s="12"/>
+      <c r="AG118" s="11"/>
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
       <c r="AJ118" s="1"/>
@@ -10700,7 +10715,7 @@
       <c r="AD119" s="1"/>
       <c r="AE119" s="1"/>
       <c r="AF119" s="1"/>
-      <c r="AG119" s="12"/>
+      <c r="AG119" s="11"/>
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
       <c r="AJ119" s="1"/>
@@ -10752,7 +10767,7 @@
       <c r="AD120" s="1"/>
       <c r="AE120" s="1"/>
       <c r="AF120" s="1"/>
-      <c r="AG120" s="12"/>
+      <c r="AG120" s="11"/>
       <c r="AH120" s="1"/>
       <c r="AI120" s="1"/>
       <c r="AJ120" s="1"/>
@@ -10804,7 +10819,7 @@
       <c r="AD121" s="1"/>
       <c r="AE121" s="1"/>
       <c r="AF121" s="1"/>
-      <c r="AG121" s="12"/>
+      <c r="AG121" s="11"/>
       <c r="AH121" s="1"/>
       <c r="AI121" s="1"/>
       <c r="AJ121" s="1"/>
@@ -10856,7 +10871,7 @@
       <c r="AD122" s="1"/>
       <c r="AE122" s="1"/>
       <c r="AF122" s="1"/>
-      <c r="AG122" s="12"/>
+      <c r="AG122" s="11"/>
       <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
       <c r="AJ122" s="1"/>
@@ -10908,7 +10923,7 @@
       <c r="AD123" s="1"/>
       <c r="AE123" s="1"/>
       <c r="AF123" s="1"/>
-      <c r="AG123" s="12"/>
+      <c r="AG123" s="11"/>
       <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
       <c r="AJ123" s="1"/>
@@ -10960,7 +10975,7 @@
       <c r="AD124" s="1"/>
       <c r="AE124" s="1"/>
       <c r="AF124" s="1"/>
-      <c r="AG124" s="12"/>
+      <c r="AG124" s="11"/>
       <c r="AH124" s="1"/>
       <c r="AI124" s="1"/>
       <c r="AJ124" s="1"/>
@@ -11012,7 +11027,7 @@
       <c r="AD125" s="1"/>
       <c r="AE125" s="1"/>
       <c r="AF125" s="1"/>
-      <c r="AG125" s="12"/>
+      <c r="AG125" s="11"/>
       <c r="AH125" s="1"/>
       <c r="AI125" s="1"/>
       <c r="AJ125" s="1"/>
@@ -11064,7 +11079,7 @@
       <c r="AD126" s="1"/>
       <c r="AE126" s="1"/>
       <c r="AF126" s="1"/>
-      <c r="AG126" s="12"/>
+      <c r="AG126" s="11"/>
       <c r="AH126" s="1"/>
       <c r="AI126" s="1"/>
       <c r="AJ126" s="1"/>
@@ -11116,7 +11131,7 @@
       <c r="AD127" s="1"/>
       <c r="AE127" s="1"/>
       <c r="AF127" s="1"/>
-      <c r="AG127" s="12"/>
+      <c r="AG127" s="11"/>
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
       <c r="AJ127" s="1"/>
@@ -11168,7 +11183,7 @@
       <c r="AD128" s="1"/>
       <c r="AE128" s="1"/>
       <c r="AF128" s="1"/>
-      <c r="AG128" s="12"/>
+      <c r="AG128" s="11"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
       <c r="AJ128" s="1"/>
@@ -11220,7 +11235,7 @@
       <c r="AD129" s="1"/>
       <c r="AE129" s="1"/>
       <c r="AF129" s="1"/>
-      <c r="AG129" s="12"/>
+      <c r="AG129" s="11"/>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
       <c r="AJ129" s="1"/>
@@ -11272,7 +11287,7 @@
       <c r="AD130" s="1"/>
       <c r="AE130" s="1"/>
       <c r="AF130" s="1"/>
-      <c r="AG130" s="12"/>
+      <c r="AG130" s="11"/>
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
       <c r="AJ130" s="1"/>
@@ -11324,7 +11339,7 @@
       <c r="AD131" s="1"/>
       <c r="AE131" s="1"/>
       <c r="AF131" s="1"/>
-      <c r="AG131" s="12"/>
+      <c r="AG131" s="11"/>
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
       <c r="AJ131" s="1"/>
@@ -11376,7 +11391,7 @@
       <c r="AD132" s="1"/>
       <c r="AE132" s="1"/>
       <c r="AF132" s="1"/>
-      <c r="AG132" s="12"/>
+      <c r="AG132" s="11"/>
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
       <c r="AJ132" s="1"/>
@@ -11428,7 +11443,7 @@
       <c r="AD133" s="1"/>
       <c r="AE133" s="1"/>
       <c r="AF133" s="1"/>
-      <c r="AG133" s="12"/>
+      <c r="AG133" s="11"/>
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
       <c r="AJ133" s="1"/>
@@ -11480,7 +11495,7 @@
       <c r="AD134" s="1"/>
       <c r="AE134" s="1"/>
       <c r="AF134" s="1"/>
-      <c r="AG134" s="12"/>
+      <c r="AG134" s="11"/>
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
       <c r="AJ134" s="1"/>
@@ -11532,7 +11547,7 @@
       <c r="AD135" s="1"/>
       <c r="AE135" s="1"/>
       <c r="AF135" s="1"/>
-      <c r="AG135" s="12"/>
+      <c r="AG135" s="11"/>
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
       <c r="AJ135" s="1"/>
@@ -11584,7 +11599,7 @@
       <c r="AD136" s="1"/>
       <c r="AE136" s="1"/>
       <c r="AF136" s="1"/>
-      <c r="AG136" s="12"/>
+      <c r="AG136" s="11"/>
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
       <c r="AJ136" s="1"/>
@@ -11636,7 +11651,7 @@
       <c r="AD137" s="1"/>
       <c r="AE137" s="1"/>
       <c r="AF137" s="1"/>
-      <c r="AG137" s="12"/>
+      <c r="AG137" s="11"/>
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
       <c r="AJ137" s="1"/>
@@ -11688,7 +11703,7 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
-      <c r="AG138" s="12"/>
+      <c r="AG138" s="11"/>
       <c r="AH138" s="1"/>
       <c r="AI138" s="1"/>
       <c r="AJ138" s="1"/>
@@ -11740,7 +11755,7 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
-      <c r="AG139" s="12"/>
+      <c r="AG139" s="11"/>
       <c r="AH139" s="1"/>
       <c r="AI139" s="1"/>
       <c r="AJ139" s="1"/>
@@ -11792,7 +11807,7 @@
       <c r="AD140" s="1"/>
       <c r="AE140" s="1"/>
       <c r="AF140" s="1"/>
-      <c r="AG140" s="12"/>
+      <c r="AG140" s="11"/>
       <c r="AH140" s="1"/>
       <c r="AI140" s="1"/>
       <c r="AJ140" s="1"/>
@@ -11844,7 +11859,7 @@
       <c r="AD141" s="1"/>
       <c r="AE141" s="1"/>
       <c r="AF141" s="1"/>
-      <c r="AG141" s="12"/>
+      <c r="AG141" s="11"/>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
       <c r="AJ141" s="1"/>
@@ -11896,7 +11911,7 @@
       <c r="AD142" s="1"/>
       <c r="AE142" s="1"/>
       <c r="AF142" s="1"/>
-      <c r="AG142" s="12"/>
+      <c r="AG142" s="11"/>
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
       <c r="AJ142" s="1"/>
@@ -11948,7 +11963,7 @@
       <c r="AD143" s="1"/>
       <c r="AE143" s="1"/>
       <c r="AF143" s="1"/>
-      <c r="AG143" s="12"/>
+      <c r="AG143" s="11"/>
       <c r="AH143" s="1"/>
       <c r="AI143" s="1"/>
       <c r="AJ143" s="1"/>
@@ -12000,7 +12015,7 @@
       <c r="AD144" s="1"/>
       <c r="AE144" s="1"/>
       <c r="AF144" s="1"/>
-      <c r="AG144" s="12"/>
+      <c r="AG144" s="11"/>
       <c r="AH144" s="1"/>
       <c r="AI144" s="1"/>
       <c r="AJ144" s="1"/>
@@ -12052,7 +12067,7 @@
       <c r="AD145" s="1"/>
       <c r="AE145" s="1"/>
       <c r="AF145" s="1"/>
-      <c r="AG145" s="12"/>
+      <c r="AG145" s="11"/>
       <c r="AH145" s="1"/>
       <c r="AI145" s="1"/>
       <c r="AJ145" s="1"/>
@@ -12104,7 +12119,7 @@
       <c r="AD146" s="1"/>
       <c r="AE146" s="1"/>
       <c r="AF146" s="1"/>
-      <c r="AG146" s="12"/>
+      <c r="AG146" s="11"/>
       <c r="AH146" s="1"/>
       <c r="AI146" s="1"/>
       <c r="AJ146" s="1"/>
@@ -12156,7 +12171,7 @@
       <c r="AD147" s="1"/>
       <c r="AE147" s="1"/>
       <c r="AF147" s="1"/>
-      <c r="AG147" s="12"/>
+      <c r="AG147" s="11"/>
       <c r="AH147" s="1"/>
       <c r="AI147" s="1"/>
       <c r="AJ147" s="1"/>
@@ -12208,7 +12223,7 @@
       <c r="AD148" s="1"/>
       <c r="AE148" s="1"/>
       <c r="AF148" s="1"/>
-      <c r="AG148" s="12"/>
+      <c r="AG148" s="11"/>
       <c r="AH148" s="1"/>
       <c r="AI148" s="1"/>
       <c r="AJ148" s="1"/>
@@ -12260,7 +12275,7 @@
       <c r="AD149" s="1"/>
       <c r="AE149" s="1"/>
       <c r="AF149" s="1"/>
-      <c r="AG149" s="12"/>
+      <c r="AG149" s="11"/>
       <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
       <c r="AJ149" s="1"/>
@@ -12312,7 +12327,7 @@
       <c r="AD150" s="1"/>
       <c r="AE150" s="1"/>
       <c r="AF150" s="1"/>
-      <c r="AG150" s="12"/>
+      <c r="AG150" s="11"/>
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
       <c r="AJ150" s="1"/>
@@ -12364,7 +12379,7 @@
       <c r="AD151" s="1"/>
       <c r="AE151" s="1"/>
       <c r="AF151" s="1"/>
-      <c r="AG151" s="12"/>
+      <c r="AG151" s="11"/>
       <c r="AH151" s="1"/>
       <c r="AI151" s="1"/>
       <c r="AJ151" s="1"/>
@@ -12416,7 +12431,7 @@
       <c r="AD152" s="1"/>
       <c r="AE152" s="1"/>
       <c r="AF152" s="1"/>
-      <c r="AG152" s="12"/>
+      <c r="AG152" s="11"/>
       <c r="AH152" s="1"/>
       <c r="AI152" s="1"/>
       <c r="AJ152" s="1"/>
@@ -12468,7 +12483,7 @@
       <c r="AD153" s="1"/>
       <c r="AE153" s="1"/>
       <c r="AF153" s="1"/>
-      <c r="AG153" s="12"/>
+      <c r="AG153" s="11"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="1"/>
       <c r="AJ153" s="1"/>
@@ -12520,7 +12535,7 @@
       <c r="AD154" s="1"/>
       <c r="AE154" s="1"/>
       <c r="AF154" s="1"/>
-      <c r="AG154" s="12"/>
+      <c r="AG154" s="11"/>
       <c r="AH154" s="1"/>
       <c r="AI154" s="1"/>
       <c r="AJ154" s="1"/>
@@ -12572,7 +12587,7 @@
       <c r="AD155" s="1"/>
       <c r="AE155" s="1"/>
       <c r="AF155" s="1"/>
-      <c r="AG155" s="12"/>
+      <c r="AG155" s="11"/>
       <c r="AH155" s="1"/>
       <c r="AI155" s="1"/>
       <c r="AJ155" s="1"/>
@@ -12624,7 +12639,7 @@
       <c r="AD156" s="1"/>
       <c r="AE156" s="1"/>
       <c r="AF156" s="1"/>
-      <c r="AG156" s="12"/>
+      <c r="AG156" s="11"/>
       <c r="AH156" s="1"/>
       <c r="AI156" s="1"/>
       <c r="AJ156" s="1"/>
@@ -12676,7 +12691,7 @@
       <c r="AD157" s="1"/>
       <c r="AE157" s="1"/>
       <c r="AF157" s="1"/>
-      <c r="AG157" s="12"/>
+      <c r="AG157" s="11"/>
       <c r="AH157" s="1"/>
       <c r="AI157" s="1"/>
       <c r="AJ157" s="1"/>
@@ -12728,7 +12743,7 @@
       <c r="AD158" s="1"/>
       <c r="AE158" s="1"/>
       <c r="AF158" s="1"/>
-      <c r="AG158" s="12"/>
+      <c r="AG158" s="11"/>
       <c r="AH158" s="1"/>
       <c r="AI158" s="1"/>
       <c r="AJ158" s="1"/>
@@ -12780,7 +12795,7 @@
       <c r="AD159" s="1"/>
       <c r="AE159" s="1"/>
       <c r="AF159" s="1"/>
-      <c r="AG159" s="12"/>
+      <c r="AG159" s="11"/>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
       <c r="AJ159" s="1"/>
@@ -12832,7 +12847,7 @@
       <c r="AD160" s="1"/>
       <c r="AE160" s="1"/>
       <c r="AF160" s="1"/>
-      <c r="AG160" s="12"/>
+      <c r="AG160" s="11"/>
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
       <c r="AJ160" s="1"/>
@@ -12884,7 +12899,7 @@
       <c r="AD161" s="1"/>
       <c r="AE161" s="1"/>
       <c r="AF161" s="1"/>
-      <c r="AG161" s="12"/>
+      <c r="AG161" s="11"/>
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
       <c r="AJ161" s="1"/>
@@ -12936,7 +12951,7 @@
       <c r="AD162" s="1"/>
       <c r="AE162" s="1"/>
       <c r="AF162" s="1"/>
-      <c r="AG162" s="12"/>
+      <c r="AG162" s="11"/>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
       <c r="AJ162" s="1"/>
@@ -12988,7 +13003,7 @@
       <c r="AD163" s="1"/>
       <c r="AE163" s="1"/>
       <c r="AF163" s="1"/>
-      <c r="AG163" s="12"/>
+      <c r="AG163" s="11"/>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
       <c r="AJ163" s="1"/>
@@ -13040,7 +13055,7 @@
       <c r="AD164" s="1"/>
       <c r="AE164" s="1"/>
       <c r="AF164" s="1"/>
-      <c r="AG164" s="12"/>
+      <c r="AG164" s="11"/>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
       <c r="AJ164" s="1"/>
@@ -13092,7 +13107,7 @@
       <c r="AD165" s="1"/>
       <c r="AE165" s="1"/>
       <c r="AF165" s="1"/>
-      <c r="AG165" s="12"/>
+      <c r="AG165" s="11"/>
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
       <c r="AJ165" s="1"/>
@@ -13144,7 +13159,7 @@
       <c r="AD166" s="1"/>
       <c r="AE166" s="1"/>
       <c r="AF166" s="1"/>
-      <c r="AG166" s="12"/>
+      <c r="AG166" s="11"/>
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
       <c r="AJ166" s="1"/>
@@ -13196,7 +13211,7 @@
       <c r="AD167" s="1"/>
       <c r="AE167" s="1"/>
       <c r="AF167" s="1"/>
-      <c r="AG167" s="12"/>
+      <c r="AG167" s="11"/>
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
       <c r="AJ167" s="1"/>
@@ -13248,7 +13263,7 @@
       <c r="AD168" s="1"/>
       <c r="AE168" s="1"/>
       <c r="AF168" s="1"/>
-      <c r="AG168" s="12"/>
+      <c r="AG168" s="11"/>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
       <c r="AJ168" s="1"/>
@@ -13300,7 +13315,7 @@
       <c r="AD169" s="1"/>
       <c r="AE169" s="1"/>
       <c r="AF169" s="1"/>
-      <c r="AG169" s="12"/>
+      <c r="AG169" s="11"/>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
       <c r="AJ169" s="1"/>
@@ -13352,7 +13367,7 @@
       <c r="AD170" s="1"/>
       <c r="AE170" s="1"/>
       <c r="AF170" s="1"/>
-      <c r="AG170" s="12"/>
+      <c r="AG170" s="11"/>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
       <c r="AJ170" s="1"/>
@@ -13404,7 +13419,7 @@
       <c r="AD171" s="1"/>
       <c r="AE171" s="1"/>
       <c r="AF171" s="1"/>
-      <c r="AG171" s="12"/>
+      <c r="AG171" s="11"/>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
       <c r="AJ171" s="1"/>
@@ -13456,7 +13471,7 @@
       <c r="AD172" s="1"/>
       <c r="AE172" s="1"/>
       <c r="AF172" s="1"/>
-      <c r="AG172" s="12"/>
+      <c r="AG172" s="11"/>
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
       <c r="AJ172" s="1"/>
@@ -13508,7 +13523,7 @@
       <c r="AD173" s="1"/>
       <c r="AE173" s="1"/>
       <c r="AF173" s="1"/>
-      <c r="AG173" s="12"/>
+      <c r="AG173" s="11"/>
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
       <c r="AJ173" s="1"/>
@@ -13560,7 +13575,7 @@
       <c r="AD174" s="1"/>
       <c r="AE174" s="1"/>
       <c r="AF174" s="1"/>
-      <c r="AG174" s="12"/>
+      <c r="AG174" s="11"/>
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
       <c r="AJ174" s="1"/>
@@ -13612,7 +13627,7 @@
       <c r="AD175" s="1"/>
       <c r="AE175" s="1"/>
       <c r="AF175" s="1"/>
-      <c r="AG175" s="12"/>
+      <c r="AG175" s="11"/>
       <c r="AH175" s="1"/>
       <c r="AI175" s="1"/>
       <c r="AJ175" s="1"/>
@@ -13664,7 +13679,7 @@
       <c r="AD176" s="1"/>
       <c r="AE176" s="1"/>
       <c r="AF176" s="1"/>
-      <c r="AG176" s="12"/>
+      <c r="AG176" s="11"/>
       <c r="AH176" s="1"/>
       <c r="AI176" s="1"/>
       <c r="AJ176" s="1"/>
@@ -13716,7 +13731,7 @@
       <c r="AD177" s="1"/>
       <c r="AE177" s="1"/>
       <c r="AF177" s="1"/>
-      <c r="AG177" s="12"/>
+      <c r="AG177" s="11"/>
       <c r="AH177" s="1"/>
       <c r="AI177" s="1"/>
       <c r="AJ177" s="1"/>
@@ -13768,7 +13783,7 @@
       <c r="AD178" s="1"/>
       <c r="AE178" s="1"/>
       <c r="AF178" s="1"/>
-      <c r="AG178" s="12"/>
+      <c r="AG178" s="11"/>
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
       <c r="AJ178" s="1"/>
@@ -13820,7 +13835,7 @@
       <c r="AD179" s="1"/>
       <c r="AE179" s="1"/>
       <c r="AF179" s="1"/>
-      <c r="AG179" s="12"/>
+      <c r="AG179" s="11"/>
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
       <c r="AJ179" s="1"/>
@@ -13872,7 +13887,7 @@
       <c r="AD180" s="1"/>
       <c r="AE180" s="1"/>
       <c r="AF180" s="1"/>
-      <c r="AG180" s="12"/>
+      <c r="AG180" s="11"/>
       <c r="AH180" s="1"/>
       <c r="AI180" s="1"/>
       <c r="AJ180" s="1"/>
@@ -13924,7 +13939,7 @@
       <c r="AD181" s="1"/>
       <c r="AE181" s="1"/>
       <c r="AF181" s="1"/>
-      <c r="AG181" s="12"/>
+      <c r="AG181" s="11"/>
       <c r="AH181" s="1"/>
       <c r="AI181" s="1"/>
       <c r="AJ181" s="1"/>
@@ -13976,7 +13991,7 @@
       <c r="AD182" s="1"/>
       <c r="AE182" s="1"/>
       <c r="AF182" s="1"/>
-      <c r="AG182" s="12"/>
+      <c r="AG182" s="11"/>
       <c r="AH182" s="1"/>
       <c r="AI182" s="1"/>
       <c r="AJ182" s="1"/>
@@ -14028,7 +14043,7 @@
       <c r="AD183" s="1"/>
       <c r="AE183" s="1"/>
       <c r="AF183" s="1"/>
-      <c r="AG183" s="12"/>
+      <c r="AG183" s="11"/>
       <c r="AH183" s="1"/>
       <c r="AI183" s="1"/>
       <c r="AJ183" s="1"/>
@@ -14080,7 +14095,7 @@
       <c r="AD184" s="1"/>
       <c r="AE184" s="1"/>
       <c r="AF184" s="1"/>
-      <c r="AG184" s="12"/>
+      <c r="AG184" s="11"/>
       <c r="AH184" s="1"/>
       <c r="AI184" s="1"/>
       <c r="AJ184" s="1"/>
@@ -14132,7 +14147,7 @@
       <c r="AD185" s="1"/>
       <c r="AE185" s="1"/>
       <c r="AF185" s="1"/>
-      <c r="AG185" s="12"/>
+      <c r="AG185" s="11"/>
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
       <c r="AJ185" s="1"/>
@@ -14184,7 +14199,7 @@
       <c r="AD186" s="1"/>
       <c r="AE186" s="1"/>
       <c r="AF186" s="1"/>
-      <c r="AG186" s="12"/>
+      <c r="AG186" s="11"/>
       <c r="AH186" s="1"/>
       <c r="AI186" s="1"/>
       <c r="AJ186" s="1"/>
@@ -14236,7 +14251,7 @@
       <c r="AD187" s="1"/>
       <c r="AE187" s="1"/>
       <c r="AF187" s="1"/>
-      <c r="AG187" s="12"/>
+      <c r="AG187" s="11"/>
       <c r="AH187" s="1"/>
       <c r="AI187" s="1"/>
       <c r="AJ187" s="1"/>
@@ -14288,7 +14303,7 @@
       <c r="AD188" s="1"/>
       <c r="AE188" s="1"/>
       <c r="AF188" s="1"/>
-      <c r="AG188" s="12"/>
+      <c r="AG188" s="11"/>
       <c r="AH188" s="1"/>
       <c r="AI188" s="1"/>
       <c r="AJ188" s="1"/>
@@ -14340,7 +14355,7 @@
       <c r="AD189" s="1"/>
       <c r="AE189" s="1"/>
       <c r="AF189" s="1"/>
-      <c r="AG189" s="12"/>
+      <c r="AG189" s="11"/>
       <c r="AH189" s="1"/>
       <c r="AI189" s="1"/>
       <c r="AJ189" s="1"/>
@@ -14392,7 +14407,7 @@
       <c r="AD190" s="1"/>
       <c r="AE190" s="1"/>
       <c r="AF190" s="1"/>
-      <c r="AG190" s="12"/>
+      <c r="AG190" s="11"/>
       <c r="AH190" s="1"/>
       <c r="AI190" s="1"/>
       <c r="AJ190" s="1"/>
@@ -14444,7 +14459,7 @@
       <c r="AD191" s="1"/>
       <c r="AE191" s="1"/>
       <c r="AF191" s="1"/>
-      <c r="AG191" s="12"/>
+      <c r="AG191" s="11"/>
       <c r="AH191" s="1"/>
       <c r="AI191" s="1"/>
       <c r="AJ191" s="1"/>
@@ -14496,7 +14511,7 @@
       <c r="AD192" s="1"/>
       <c r="AE192" s="1"/>
       <c r="AF192" s="1"/>
-      <c r="AG192" s="12"/>
+      <c r="AG192" s="11"/>
       <c r="AH192" s="1"/>
       <c r="AI192" s="1"/>
       <c r="AJ192" s="1"/>
@@ -14548,7 +14563,7 @@
       <c r="AD193" s="1"/>
       <c r="AE193" s="1"/>
       <c r="AF193" s="1"/>
-      <c r="AG193" s="12"/>
+      <c r="AG193" s="11"/>
       <c r="AH193" s="1"/>
       <c r="AI193" s="1"/>
       <c r="AJ193" s="1"/>
@@ -14600,7 +14615,7 @@
       <c r="AD194" s="1"/>
       <c r="AE194" s="1"/>
       <c r="AF194" s="1"/>
-      <c r="AG194" s="12"/>
+      <c r="AG194" s="11"/>
       <c r="AH194" s="1"/>
       <c r="AI194" s="1"/>
       <c r="AJ194" s="1"/>
@@ -14652,7 +14667,7 @@
       <c r="AD195" s="1"/>
       <c r="AE195" s="1"/>
       <c r="AF195" s="1"/>
-      <c r="AG195" s="12"/>
+      <c r="AG195" s="11"/>
       <c r="AH195" s="1"/>
       <c r="AI195" s="1"/>
       <c r="AJ195" s="1"/>
@@ -14704,7 +14719,7 @@
       <c r="AD196" s="1"/>
       <c r="AE196" s="1"/>
       <c r="AF196" s="1"/>
-      <c r="AG196" s="12"/>
+      <c r="AG196" s="11"/>
       <c r="AH196" s="1"/>
       <c r="AI196" s="1"/>
       <c r="AJ196" s="1"/>
@@ -14756,7 +14771,7 @@
       <c r="AD197" s="1"/>
       <c r="AE197" s="1"/>
       <c r="AF197" s="1"/>
-      <c r="AG197" s="12"/>
+      <c r="AG197" s="11"/>
       <c r="AH197" s="1"/>
       <c r="AI197" s="1"/>
       <c r="AJ197" s="1"/>
@@ -14808,7 +14823,7 @@
       <c r="AD198" s="1"/>
       <c r="AE198" s="1"/>
       <c r="AF198" s="1"/>
-      <c r="AG198" s="12"/>
+      <c r="AG198" s="11"/>
       <c r="AH198" s="1"/>
       <c r="AI198" s="1"/>
       <c r="AJ198" s="1"/>
@@ -14860,7 +14875,7 @@
       <c r="AD199" s="1"/>
       <c r="AE199" s="1"/>
       <c r="AF199" s="1"/>
-      <c r="AG199" s="12"/>
+      <c r="AG199" s="11"/>
       <c r="AH199" s="1"/>
       <c r="AI199" s="1"/>
       <c r="AJ199" s="1"/>
@@ -14912,7 +14927,7 @@
       <c r="AD200" s="1"/>
       <c r="AE200" s="1"/>
       <c r="AF200" s="1"/>
-      <c r="AG200" s="12"/>
+      <c r="AG200" s="11"/>
       <c r="AH200" s="1"/>
       <c r="AI200" s="1"/>
       <c r="AJ200" s="1"/>
@@ -14964,7 +14979,7 @@
       <c r="AD201" s="1"/>
       <c r="AE201" s="1"/>
       <c r="AF201" s="1"/>
-      <c r="AG201" s="12"/>
+      <c r="AG201" s="11"/>
       <c r="AH201" s="1"/>
       <c r="AI201" s="1"/>
       <c r="AJ201" s="1"/>
@@ -15016,7 +15031,7 @@
       <c r="AD202" s="1"/>
       <c r="AE202" s="1"/>
       <c r="AF202" s="1"/>
-      <c r="AG202" s="12"/>
+      <c r="AG202" s="11"/>
       <c r="AH202" s="1"/>
       <c r="AI202" s="1"/>
       <c r="AJ202" s="1"/>
@@ -15068,7 +15083,7 @@
       <c r="AD203" s="1"/>
       <c r="AE203" s="1"/>
       <c r="AF203" s="1"/>
-      <c r="AG203" s="12"/>
+      <c r="AG203" s="11"/>
       <c r="AH203" s="1"/>
       <c r="AI203" s="1"/>
       <c r="AJ203" s="1"/>
@@ -15120,7 +15135,7 @@
       <c r="AD204" s="1"/>
       <c r="AE204" s="1"/>
       <c r="AF204" s="1"/>
-      <c r="AG204" s="12"/>
+      <c r="AG204" s="11"/>
       <c r="AH204" s="1"/>
       <c r="AI204" s="1"/>
       <c r="AJ204" s="1"/>
@@ -15172,7 +15187,7 @@
       <c r="AD205" s="1"/>
       <c r="AE205" s="1"/>
       <c r="AF205" s="1"/>
-      <c r="AG205" s="12"/>
+      <c r="AG205" s="11"/>
       <c r="AH205" s="1"/>
       <c r="AI205" s="1"/>
       <c r="AJ205" s="1"/>
@@ -15224,7 +15239,7 @@
       <c r="AD206" s="1"/>
       <c r="AE206" s="1"/>
       <c r="AF206" s="1"/>
-      <c r="AG206" s="12"/>
+      <c r="AG206" s="11"/>
       <c r="AH206" s="1"/>
       <c r="AI206" s="1"/>
       <c r="AJ206" s="1"/>
@@ -15276,7 +15291,7 @@
       <c r="AD207" s="1"/>
       <c r="AE207" s="1"/>
       <c r="AF207" s="1"/>
-      <c r="AG207" s="12"/>
+      <c r="AG207" s="11"/>
       <c r="AH207" s="1"/>
       <c r="AI207" s="1"/>
       <c r="AJ207" s="1"/>
@@ -15328,7 +15343,7 @@
       <c r="AD208" s="1"/>
       <c r="AE208" s="1"/>
       <c r="AF208" s="1"/>
-      <c r="AG208" s="12"/>
+      <c r="AG208" s="11"/>
       <c r="AH208" s="1"/>
       <c r="AI208" s="1"/>
       <c r="AJ208" s="1"/>
@@ -15380,7 +15395,7 @@
       <c r="AD209" s="1"/>
       <c r="AE209" s="1"/>
       <c r="AF209" s="1"/>
-      <c r="AG209" s="12"/>
+      <c r="AG209" s="11"/>
       <c r="AH209" s="1"/>
       <c r="AI209" s="1"/>
       <c r="AJ209" s="1"/>
@@ -15432,7 +15447,7 @@
       <c r="AD210" s="1"/>
       <c r="AE210" s="1"/>
       <c r="AF210" s="1"/>
-      <c r="AG210" s="12"/>
+      <c r="AG210" s="11"/>
       <c r="AH210" s="1"/>
       <c r="AI210" s="1"/>
       <c r="AJ210" s="1"/>
@@ -15484,7 +15499,7 @@
       <c r="AD211" s="1"/>
       <c r="AE211" s="1"/>
       <c r="AF211" s="1"/>
-      <c r="AG211" s="12"/>
+      <c r="AG211" s="11"/>
       <c r="AH211" s="1"/>
       <c r="AI211" s="1"/>
       <c r="AJ211" s="1"/>
@@ -15536,7 +15551,7 @@
       <c r="AD212" s="1"/>
       <c r="AE212" s="1"/>
       <c r="AF212" s="1"/>
-      <c r="AG212" s="12"/>
+      <c r="AG212" s="11"/>
       <c r="AH212" s="1"/>
       <c r="AI212" s="1"/>
       <c r="AJ212" s="1"/>
@@ -15588,7 +15603,7 @@
       <c r="AD213" s="1"/>
       <c r="AE213" s="1"/>
       <c r="AF213" s="1"/>
-      <c r="AG213" s="12"/>
+      <c r="AG213" s="11"/>
       <c r="AH213" s="1"/>
       <c r="AI213" s="1"/>
       <c r="AJ213" s="1"/>
@@ -15640,7 +15655,7 @@
       <c r="AD214" s="1"/>
       <c r="AE214" s="1"/>
       <c r="AF214" s="1"/>
-      <c r="AG214" s="12"/>
+      <c r="AG214" s="11"/>
       <c r="AH214" s="1"/>
       <c r="AI214" s="1"/>
       <c r="AJ214" s="1"/>
@@ -15692,7 +15707,7 @@
       <c r="AD215" s="1"/>
       <c r="AE215" s="1"/>
       <c r="AF215" s="1"/>
-      <c r="AG215" s="12"/>
+      <c r="AG215" s="11"/>
       <c r="AH215" s="1"/>
       <c r="AI215" s="1"/>
       <c r="AJ215" s="1"/>
@@ -15744,7 +15759,7 @@
       <c r="AD216" s="1"/>
       <c r="AE216" s="1"/>
       <c r="AF216" s="1"/>
-      <c r="AG216" s="12"/>
+      <c r="AG216" s="11"/>
       <c r="AH216" s="1"/>
       <c r="AI216" s="1"/>
       <c r="AJ216" s="1"/>
@@ -15796,7 +15811,7 @@
       <c r="AD217" s="1"/>
       <c r="AE217" s="1"/>
       <c r="AF217" s="1"/>
-      <c r="AG217" s="12"/>
+      <c r="AG217" s="11"/>
       <c r="AH217" s="1"/>
       <c r="AI217" s="1"/>
       <c r="AJ217" s="1"/>
@@ -15848,7 +15863,7 @@
       <c r="AD218" s="1"/>
       <c r="AE218" s="1"/>
       <c r="AF218" s="1"/>
-      <c r="AG218" s="12"/>
+      <c r="AG218" s="11"/>
       <c r="AH218" s="1"/>
       <c r="AI218" s="1"/>
       <c r="AJ218" s="1"/>
@@ -15900,7 +15915,7 @@
       <c r="AD219" s="1"/>
       <c r="AE219" s="1"/>
       <c r="AF219" s="1"/>
-      <c r="AG219" s="12"/>
+      <c r="AG219" s="11"/>
       <c r="AH219" s="1"/>
       <c r="AI219" s="1"/>
       <c r="AJ219" s="1"/>
@@ -15952,7 +15967,7 @@
       <c r="AD220" s="1"/>
       <c r="AE220" s="1"/>
       <c r="AF220" s="1"/>
-      <c r="AG220" s="12"/>
+      <c r="AG220" s="11"/>
       <c r="AH220" s="1"/>
       <c r="AI220" s="1"/>
       <c r="AJ220" s="1"/>
@@ -16004,7 +16019,7 @@
       <c r="AD221" s="1"/>
       <c r="AE221" s="1"/>
       <c r="AF221" s="1"/>
-      <c r="AG221" s="12"/>
+      <c r="AG221" s="11"/>
       <c r="AH221" s="1"/>
       <c r="AI221" s="1"/>
       <c r="AJ221" s="1"/>
@@ -16056,7 +16071,7 @@
       <c r="AD222" s="1"/>
       <c r="AE222" s="1"/>
       <c r="AF222" s="1"/>
-      <c r="AG222" s="12"/>
+      <c r="AG222" s="11"/>
       <c r="AH222" s="1"/>
       <c r="AI222" s="1"/>
       <c r="AJ222" s="1"/>
@@ -16108,7 +16123,7 @@
       <c r="AD223" s="1"/>
       <c r="AE223" s="1"/>
       <c r="AF223" s="1"/>
-      <c r="AG223" s="12"/>
+      <c r="AG223" s="11"/>
       <c r="AH223" s="1"/>
       <c r="AI223" s="1"/>
       <c r="AJ223" s="1"/>
@@ -16160,7 +16175,7 @@
       <c r="AD224" s="1"/>
       <c r="AE224" s="1"/>
       <c r="AF224" s="1"/>
-      <c r="AG224" s="12"/>
+      <c r="AG224" s="11"/>
       <c r="AH224" s="1"/>
       <c r="AI224" s="1"/>
       <c r="AJ224" s="1"/>
@@ -16212,7 +16227,7 @@
       <c r="AD225" s="1"/>
       <c r="AE225" s="1"/>
       <c r="AF225" s="1"/>
-      <c r="AG225" s="12"/>
+      <c r="AG225" s="11"/>
       <c r="AH225" s="1"/>
       <c r="AI225" s="1"/>
       <c r="AJ225" s="1"/>
@@ -16264,7 +16279,7 @@
       <c r="AD226" s="1"/>
       <c r="AE226" s="1"/>
       <c r="AF226" s="1"/>
-      <c r="AG226" s="12"/>
+      <c r="AG226" s="11"/>
       <c r="AH226" s="1"/>
       <c r="AI226" s="1"/>
       <c r="AJ226" s="1"/>
@@ -16316,7 +16331,7 @@
       <c r="AD227" s="1"/>
       <c r="AE227" s="1"/>
       <c r="AF227" s="1"/>
-      <c r="AG227" s="12"/>
+      <c r="AG227" s="11"/>
       <c r="AH227" s="1"/>
       <c r="AI227" s="1"/>
       <c r="AJ227" s="1"/>
@@ -16368,7 +16383,7 @@
       <c r="AD228" s="1"/>
       <c r="AE228" s="1"/>
       <c r="AF228" s="1"/>
-      <c r="AG228" s="12"/>
+      <c r="AG228" s="11"/>
       <c r="AH228" s="1"/>
       <c r="AI228" s="1"/>
       <c r="AJ228" s="1"/>
@@ -16420,7 +16435,7 @@
       <c r="AD229" s="1"/>
       <c r="AE229" s="1"/>
       <c r="AF229" s="1"/>
-      <c r="AG229" s="12"/>
+      <c r="AG229" s="11"/>
       <c r="AH229" s="1"/>
       <c r="AI229" s="1"/>
       <c r="AJ229" s="1"/>
@@ -16472,7 +16487,7 @@
       <c r="AD230" s="1"/>
       <c r="AE230" s="1"/>
       <c r="AF230" s="1"/>
-      <c r="AG230" s="12"/>
+      <c r="AG230" s="11"/>
       <c r="AH230" s="1"/>
       <c r="AI230" s="1"/>
       <c r="AJ230" s="1"/>
@@ -16524,7 +16539,7 @@
       <c r="AD231" s="1"/>
       <c r="AE231" s="1"/>
       <c r="AF231" s="1"/>
-      <c r="AG231" s="12"/>
+      <c r="AG231" s="11"/>
       <c r="AH231" s="1"/>
       <c r="AI231" s="1"/>
       <c r="AJ231" s="1"/>
@@ -16576,7 +16591,7 @@
       <c r="AD232" s="1"/>
       <c r="AE232" s="1"/>
       <c r="AF232" s="1"/>
-      <c r="AG232" s="12"/>
+      <c r="AG232" s="11"/>
       <c r="AH232" s="1"/>
       <c r="AI232" s="1"/>
       <c r="AJ232" s="1"/>
@@ -16628,7 +16643,7 @@
       <c r="AD233" s="1"/>
       <c r="AE233" s="1"/>
       <c r="AF233" s="1"/>
-      <c r="AG233" s="12"/>
+      <c r="AG233" s="11"/>
       <c r="AH233" s="1"/>
       <c r="AI233" s="1"/>
       <c r="AJ233" s="1"/>
@@ -16680,7 +16695,7 @@
       <c r="AD234" s="1"/>
       <c r="AE234" s="1"/>
       <c r="AF234" s="1"/>
-      <c r="AG234" s="12"/>
+      <c r="AG234" s="11"/>
       <c r="AH234" s="1"/>
       <c r="AI234" s="1"/>
       <c r="AJ234" s="1"/>
@@ -16732,7 +16747,7 @@
       <c r="AD235" s="1"/>
       <c r="AE235" s="1"/>
       <c r="AF235" s="1"/>
-      <c r="AG235" s="12"/>
+      <c r="AG235" s="11"/>
       <c r="AH235" s="1"/>
       <c r="AI235" s="1"/>
       <c r="AJ235" s="1"/>
@@ -16784,7 +16799,7 @@
       <c r="AD236" s="1"/>
       <c r="AE236" s="1"/>
       <c r="AF236" s="1"/>
-      <c r="AG236" s="12"/>
+      <c r="AG236" s="11"/>
       <c r="AH236" s="1"/>
       <c r="AI236" s="1"/>
       <c r="AJ236" s="1"/>
@@ -16836,7 +16851,7 @@
       <c r="AD237" s="1"/>
       <c r="AE237" s="1"/>
       <c r="AF237" s="1"/>
-      <c r="AG237" s="12"/>
+      <c r="AG237" s="11"/>
       <c r="AH237" s="1"/>
       <c r="AI237" s="1"/>
       <c r="AJ237" s="1"/>
@@ -16888,7 +16903,7 @@
       <c r="AD238" s="1"/>
       <c r="AE238" s="1"/>
       <c r="AF238" s="1"/>
-      <c r="AG238" s="12"/>
+      <c r="AG238" s="11"/>
       <c r="AH238" s="1"/>
       <c r="AI238" s="1"/>
       <c r="AJ238" s="1"/>
@@ -16940,7 +16955,7 @@
       <c r="AD239" s="1"/>
       <c r="AE239" s="1"/>
       <c r="AF239" s="1"/>
-      <c r="AG239" s="12"/>
+      <c r="AG239" s="11"/>
       <c r="AH239" s="1"/>
       <c r="AI239" s="1"/>
       <c r="AJ239" s="1"/>
@@ -16992,7 +17007,7 @@
       <c r="AD240" s="1"/>
       <c r="AE240" s="1"/>
       <c r="AF240" s="1"/>
-      <c r="AG240" s="12"/>
+      <c r="AG240" s="11"/>
       <c r="AH240" s="1"/>
       <c r="AI240" s="1"/>
       <c r="AJ240" s="1"/>
@@ -17044,7 +17059,7 @@
       <c r="AD241" s="1"/>
       <c r="AE241" s="1"/>
       <c r="AF241" s="1"/>
-      <c r="AG241" s="12"/>
+      <c r="AG241" s="11"/>
       <c r="AH241" s="1"/>
       <c r="AI241" s="1"/>
       <c r="AJ241" s="1"/>
@@ -17096,7 +17111,7 @@
       <c r="AD242" s="1"/>
       <c r="AE242" s="1"/>
       <c r="AF242" s="1"/>
-      <c r="AG242" s="12"/>
+      <c r="AG242" s="11"/>
       <c r="AH242" s="1"/>
       <c r="AI242" s="1"/>
       <c r="AJ242" s="1"/>
@@ -17148,7 +17163,7 @@
       <c r="AD243" s="1"/>
       <c r="AE243" s="1"/>
       <c r="AF243" s="1"/>
-      <c r="AG243" s="12"/>
+      <c r="AG243" s="11"/>
       <c r="AH243" s="1"/>
       <c r="AI243" s="1"/>
       <c r="AJ243" s="1"/>
@@ -17200,7 +17215,7 @@
       <c r="AD244" s="1"/>
       <c r="AE244" s="1"/>
       <c r="AF244" s="1"/>
-      <c r="AG244" s="12"/>
+      <c r="AG244" s="11"/>
       <c r="AH244" s="1"/>
       <c r="AI244" s="1"/>
       <c r="AJ244" s="1"/>
@@ -17252,7 +17267,7 @@
       <c r="AD245" s="1"/>
       <c r="AE245" s="1"/>
       <c r="AF245" s="1"/>
-      <c r="AG245" s="12"/>
+      <c r="AG245" s="11"/>
       <c r="AH245" s="1"/>
       <c r="AI245" s="1"/>
       <c r="AJ245" s="1"/>
@@ -17304,7 +17319,7 @@
       <c r="AD246" s="1"/>
       <c r="AE246" s="1"/>
       <c r="AF246" s="1"/>
-      <c r="AG246" s="12"/>
+      <c r="AG246" s="11"/>
       <c r="AH246" s="1"/>
       <c r="AI246" s="1"/>
       <c r="AJ246" s="1"/>
@@ -17356,7 +17371,7 @@
       <c r="AD247" s="1"/>
       <c r="AE247" s="1"/>
       <c r="AF247" s="1"/>
-      <c r="AG247" s="12"/>
+      <c r="AG247" s="11"/>
       <c r="AH247" s="1"/>
       <c r="AI247" s="1"/>
       <c r="AJ247" s="1"/>
@@ -17408,7 +17423,7 @@
       <c r="AD248" s="1"/>
       <c r="AE248" s="1"/>
       <c r="AF248" s="1"/>
-      <c r="AG248" s="12"/>
+      <c r="AG248" s="11"/>
       <c r="AH248" s="1"/>
       <c r="AI248" s="1"/>
       <c r="AJ248" s="1"/>
@@ -17460,7 +17475,7 @@
       <c r="AD249" s="1"/>
       <c r="AE249" s="1"/>
       <c r="AF249" s="1"/>
-      <c r="AG249" s="12"/>
+      <c r="AG249" s="11"/>
       <c r="AH249" s="1"/>
       <c r="AI249" s="1"/>
       <c r="AJ249" s="1"/>
@@ -17512,7 +17527,7 @@
       <c r="AD250" s="1"/>
       <c r="AE250" s="1"/>
       <c r="AF250" s="1"/>
-      <c r="AG250" s="12"/>
+      <c r="AG250" s="11"/>
       <c r="AH250" s="1"/>
       <c r="AI250" s="1"/>
       <c r="AJ250" s="1"/>
@@ -17564,7 +17579,7 @@
       <c r="AD251" s="1"/>
       <c r="AE251" s="1"/>
       <c r="AF251" s="1"/>
-      <c r="AG251" s="12"/>
+      <c r="AG251" s="11"/>
       <c r="AH251" s="1"/>
       <c r="AI251" s="1"/>
       <c r="AJ251" s="1"/>
@@ -17616,7 +17631,7 @@
       <c r="AD252" s="1"/>
       <c r="AE252" s="1"/>
       <c r="AF252" s="1"/>
-      <c r="AG252" s="12"/>
+      <c r="AG252" s="11"/>
       <c r="AH252" s="1"/>
       <c r="AI252" s="1"/>
       <c r="AJ252" s="1"/>
@@ -17668,7 +17683,7 @@
       <c r="AD253" s="1"/>
       <c r="AE253" s="1"/>
       <c r="AF253" s="1"/>
-      <c r="AG253" s="12"/>
+      <c r="AG253" s="11"/>
       <c r="AH253" s="1"/>
       <c r="AI253" s="1"/>
       <c r="AJ253" s="1"/>
@@ -17720,7 +17735,7 @@
       <c r="AD254" s="1"/>
       <c r="AE254" s="1"/>
       <c r="AF254" s="1"/>
-      <c r="AG254" s="12"/>
+      <c r="AG254" s="11"/>
       <c r="AH254" s="1"/>
       <c r="AI254" s="1"/>
       <c r="AJ254" s="1"/>
@@ -17772,7 +17787,7 @@
       <c r="AD255" s="1"/>
       <c r="AE255" s="1"/>
       <c r="AF255" s="1"/>
-      <c r="AG255" s="12"/>
+      <c r="AG255" s="11"/>
       <c r="AH255" s="1"/>
       <c r="AI255" s="1"/>
       <c r="AJ255" s="1"/>
@@ -17824,7 +17839,7 @@
       <c r="AD256" s="1"/>
       <c r="AE256" s="1"/>
       <c r="AF256" s="1"/>
-      <c r="AG256" s="12"/>
+      <c r="AG256" s="11"/>
       <c r="AH256" s="1"/>
       <c r="AI256" s="1"/>
       <c r="AJ256" s="1"/>
@@ -17876,7 +17891,7 @@
       <c r="AD257" s="1"/>
       <c r="AE257" s="1"/>
       <c r="AF257" s="1"/>
-      <c r="AG257" s="12"/>
+      <c r="AG257" s="11"/>
       <c r="AH257" s="1"/>
       <c r="AI257" s="1"/>
       <c r="AJ257" s="1"/>
@@ -17928,7 +17943,7 @@
       <c r="AD258" s="1"/>
       <c r="AE258" s="1"/>
       <c r="AF258" s="1"/>
-      <c r="AG258" s="12"/>
+      <c r="AG258" s="11"/>
       <c r="AH258" s="1"/>
       <c r="AI258" s="1"/>
       <c r="AJ258" s="1"/>
@@ -17980,7 +17995,7 @@
       <c r="AD259" s="1"/>
       <c r="AE259" s="1"/>
       <c r="AF259" s="1"/>
-      <c r="AG259" s="12"/>
+      <c r="AG259" s="11"/>
       <c r="AH259" s="1"/>
       <c r="AI259" s="1"/>
       <c r="AJ259" s="1"/>
@@ -18032,7 +18047,7 @@
       <c r="AD260" s="1"/>
       <c r="AE260" s="1"/>
       <c r="AF260" s="1"/>
-      <c r="AG260" s="12"/>
+      <c r="AG260" s="11"/>
       <c r="AH260" s="1"/>
       <c r="AI260" s="1"/>
       <c r="AJ260" s="1"/>
@@ -18084,7 +18099,7 @@
       <c r="AD261" s="1"/>
       <c r="AE261" s="1"/>
       <c r="AF261" s="1"/>
-      <c r="AG261" s="12"/>
+      <c r="AG261" s="11"/>
       <c r="AH261" s="1"/>
       <c r="AI261" s="1"/>
       <c r="AJ261" s="1"/>
@@ -18136,7 +18151,7 @@
       <c r="AD262" s="1"/>
       <c r="AE262" s="1"/>
       <c r="AF262" s="1"/>
-      <c r="AG262" s="12"/>
+      <c r="AG262" s="11"/>
       <c r="AH262" s="1"/>
       <c r="AI262" s="1"/>
       <c r="AJ262" s="1"/>
@@ -18188,7 +18203,7 @@
       <c r="AD263" s="1"/>
       <c r="AE263" s="1"/>
       <c r="AF263" s="1"/>
-      <c r="AG263" s="12"/>
+      <c r="AG263" s="11"/>
       <c r="AH263" s="1"/>
       <c r="AI263" s="1"/>
       <c r="AJ263" s="1"/>
@@ -18240,7 +18255,7 @@
       <c r="AD264" s="1"/>
       <c r="AE264" s="1"/>
       <c r="AF264" s="1"/>
-      <c r="AG264" s="12"/>
+      <c r="AG264" s="11"/>
       <c r="AH264" s="1"/>
       <c r="AI264" s="1"/>
       <c r="AJ264" s="1"/>
@@ -18292,7 +18307,7 @@
       <c r="AD265" s="1"/>
       <c r="AE265" s="1"/>
       <c r="AF265" s="1"/>
-      <c r="AG265" s="12"/>
+      <c r="AG265" s="11"/>
       <c r="AH265" s="1"/>
       <c r="AI265" s="1"/>
       <c r="AJ265" s="1"/>
@@ -18344,7 +18359,7 @@
       <c r="AD266" s="1"/>
       <c r="AE266" s="1"/>
       <c r="AF266" s="1"/>
-      <c r="AG266" s="12"/>
+      <c r="AG266" s="11"/>
       <c r="AH266" s="1"/>
       <c r="AI266" s="1"/>
       <c r="AJ266" s="1"/>
@@ -18396,7 +18411,7 @@
       <c r="AD267" s="1"/>
       <c r="AE267" s="1"/>
       <c r="AF267" s="1"/>
-      <c r="AG267" s="12"/>
+      <c r="AG267" s="11"/>
       <c r="AH267" s="1"/>
       <c r="AI267" s="1"/>
       <c r="AJ267" s="1"/>
@@ -18448,7 +18463,7 @@
       <c r="AD268" s="1"/>
       <c r="AE268" s="1"/>
       <c r="AF268" s="1"/>
-      <c r="AG268" s="12"/>
+      <c r="AG268" s="11"/>
       <c r="AH268" s="1"/>
       <c r="AI268" s="1"/>
       <c r="AJ268" s="1"/>
@@ -18500,7 +18515,7 @@
       <c r="AD269" s="1"/>
       <c r="AE269" s="1"/>
       <c r="AF269" s="1"/>
-      <c r="AG269" s="12"/>
+      <c r="AG269" s="11"/>
       <c r="AH269" s="1"/>
       <c r="AI269" s="1"/>
       <c r="AJ269" s="1"/>
@@ -18552,7 +18567,7 @@
       <c r="AD270" s="1"/>
       <c r="AE270" s="1"/>
       <c r="AF270" s="1"/>
-      <c r="AG270" s="12"/>
+      <c r="AG270" s="11"/>
       <c r="AH270" s="1"/>
       <c r="AI270" s="1"/>
       <c r="AJ270" s="1"/>
@@ -18604,7 +18619,7 @@
       <c r="AD271" s="1"/>
       <c r="AE271" s="1"/>
       <c r="AF271" s="1"/>
-      <c r="AG271" s="12"/>
+      <c r="AG271" s="11"/>
       <c r="AH271" s="1"/>
       <c r="AI271" s="1"/>
       <c r="AJ271" s="1"/>
@@ -18656,7 +18671,7 @@
       <c r="AD272" s="1"/>
       <c r="AE272" s="1"/>
       <c r="AF272" s="1"/>
-      <c r="AG272" s="12"/>
+      <c r="AG272" s="11"/>
       <c r="AH272" s="1"/>
       <c r="AI272" s="1"/>
       <c r="AJ272" s="1"/>
@@ -18708,7 +18723,7 @@
       <c r="AD273" s="1"/>
       <c r="AE273" s="1"/>
       <c r="AF273" s="1"/>
-      <c r="AG273" s="12"/>
+      <c r="AG273" s="11"/>
       <c r="AH273" s="1"/>
       <c r="AI273" s="1"/>
       <c r="AJ273" s="1"/>
@@ -18760,7 +18775,7 @@
       <c r="AD274" s="1"/>
       <c r="AE274" s="1"/>
       <c r="AF274" s="1"/>
-      <c r="AG274" s="12"/>
+      <c r="AG274" s="11"/>
       <c r="AH274" s="1"/>
       <c r="AI274" s="1"/>
       <c r="AJ274" s="1"/>
@@ -18812,7 +18827,7 @@
       <c r="AD275" s="1"/>
       <c r="AE275" s="1"/>
       <c r="AF275" s="1"/>
-      <c r="AG275" s="12"/>
+      <c r="AG275" s="11"/>
       <c r="AH275" s="1"/>
       <c r="AI275" s="1"/>
       <c r="AJ275" s="1"/>
@@ -18864,7 +18879,7 @@
       <c r="AD276" s="1"/>
       <c r="AE276" s="1"/>
       <c r="AF276" s="1"/>
-      <c r="AG276" s="12"/>
+      <c r="AG276" s="11"/>
       <c r="AH276" s="1"/>
       <c r="AI276" s="1"/>
       <c r="AJ276" s="1"/>
@@ -18916,7 +18931,7 @@
       <c r="AD277" s="1"/>
       <c r="AE277" s="1"/>
       <c r="AF277" s="1"/>
-      <c r="AG277" s="12"/>
+      <c r="AG277" s="11"/>
       <c r="AH277" s="1"/>
       <c r="AI277" s="1"/>
       <c r="AJ277" s="1"/>
@@ -18968,7 +18983,7 @@
       <c r="AD278" s="1"/>
       <c r="AE278" s="1"/>
       <c r="AF278" s="1"/>
-      <c r="AG278" s="12"/>
+      <c r="AG278" s="11"/>
       <c r="AH278" s="1"/>
       <c r="AI278" s="1"/>
       <c r="AJ278" s="1"/>
@@ -19020,7 +19035,7 @@
       <c r="AD279" s="1"/>
       <c r="AE279" s="1"/>
       <c r="AF279" s="1"/>
-      <c r="AG279" s="12"/>
+      <c r="AG279" s="11"/>
       <c r="AH279" s="1"/>
       <c r="AI279" s="1"/>
       <c r="AJ279" s="1"/>
@@ -19072,7 +19087,7 @@
       <c r="AD280" s="1"/>
       <c r="AE280" s="1"/>
       <c r="AF280" s="1"/>
-      <c r="AG280" s="12"/>
+      <c r="AG280" s="11"/>
       <c r="AH280" s="1"/>
       <c r="AI280" s="1"/>
       <c r="AJ280" s="1"/>
@@ -19124,7 +19139,7 @@
       <c r="AD281" s="1"/>
       <c r="AE281" s="1"/>
       <c r="AF281" s="1"/>
-      <c r="AG281" s="12"/>
+      <c r="AG281" s="11"/>
       <c r="AH281" s="1"/>
       <c r="AI281" s="1"/>
       <c r="AJ281" s="1"/>
@@ -19176,7 +19191,7 @@
       <c r="AD282" s="1"/>
       <c r="AE282" s="1"/>
       <c r="AF282" s="1"/>
-      <c r="AG282" s="12"/>
+      <c r="AG282" s="11"/>
       <c r="AH282" s="1"/>
       <c r="AI282" s="1"/>
       <c r="AJ282" s="1"/>
@@ -19228,7 +19243,7 @@
       <c r="AD283" s="1"/>
       <c r="AE283" s="1"/>
       <c r="AF283" s="1"/>
-      <c r="AG283" s="12"/>
+      <c r="AG283" s="11"/>
       <c r="AH283" s="1"/>
       <c r="AI283" s="1"/>
       <c r="AJ283" s="1"/>
@@ -19280,7 +19295,7 @@
       <c r="AD284" s="1"/>
       <c r="AE284" s="1"/>
       <c r="AF284" s="1"/>
-      <c r="AG284" s="12"/>
+      <c r="AG284" s="11"/>
       <c r="AH284" s="1"/>
       <c r="AI284" s="1"/>
       <c r="AJ284" s="1"/>
@@ -19332,7 +19347,7 @@
       <c r="AD285" s="1"/>
       <c r="AE285" s="1"/>
       <c r="AF285" s="1"/>
-      <c r="AG285" s="12"/>
+      <c r="AG285" s="11"/>
       <c r="AH285" s="1"/>
       <c r="AI285" s="1"/>
       <c r="AJ285" s="1"/>
@@ -19384,7 +19399,7 @@
       <c r="AD286" s="1"/>
       <c r="AE286" s="1"/>
       <c r="AF286" s="1"/>
-      <c r="AG286" s="12"/>
+      <c r="AG286" s="11"/>
       <c r="AH286" s="1"/>
       <c r="AI286" s="1"/>
       <c r="AJ286" s="1"/>
@@ -19436,7 +19451,7 @@
       <c r="AD287" s="1"/>
       <c r="AE287" s="1"/>
       <c r="AF287" s="1"/>
-      <c r="AG287" s="12"/>
+      <c r="AG287" s="11"/>
       <c r="AH287" s="1"/>
       <c r="AI287" s="1"/>
       <c r="AJ287" s="1"/>
@@ -19488,7 +19503,7 @@
       <c r="AD288" s="1"/>
       <c r="AE288" s="1"/>
       <c r="AF288" s="1"/>
-      <c r="AG288" s="12"/>
+      <c r="AG288" s="11"/>
       <c r="AH288" s="1"/>
       <c r="AI288" s="1"/>
       <c r="AJ288" s="1"/>
@@ -19540,7 +19555,7 @@
       <c r="AD289" s="1"/>
       <c r="AE289" s="1"/>
       <c r="AF289" s="1"/>
-      <c r="AG289" s="12"/>
+      <c r="AG289" s="11"/>
       <c r="AH289" s="1"/>
       <c r="AI289" s="1"/>
       <c r="AJ289" s="1"/>
@@ -19592,7 +19607,7 @@
       <c r="AD290" s="1"/>
       <c r="AE290" s="1"/>
       <c r="AF290" s="1"/>
-      <c r="AG290" s="12"/>
+      <c r="AG290" s="11"/>
       <c r="AH290" s="1"/>
       <c r="AI290" s="1"/>
       <c r="AJ290" s="1"/>
@@ -19644,7 +19659,7 @@
       <c r="AD291" s="1"/>
       <c r="AE291" s="1"/>
       <c r="AF291" s="1"/>
-      <c r="AG291" s="12"/>
+      <c r="AG291" s="11"/>
       <c r="AH291" s="1"/>
       <c r="AI291" s="1"/>
       <c r="AJ291" s="1"/>
@@ -19696,7 +19711,7 @@
       <c r="AD292" s="1"/>
       <c r="AE292" s="1"/>
       <c r="AF292" s="1"/>
-      <c r="AG292" s="12"/>
+      <c r="AG292" s="11"/>
       <c r="AH292" s="1"/>
       <c r="AI292" s="1"/>
       <c r="AJ292" s="1"/>
@@ -19748,7 +19763,7 @@
       <c r="AD293" s="1"/>
       <c r="AE293" s="1"/>
       <c r="AF293" s="1"/>
-      <c r="AG293" s="12"/>
+      <c r="AG293" s="11"/>
       <c r="AH293" s="1"/>
       <c r="AI293" s="1"/>
       <c r="AJ293" s="1"/>
@@ -19800,7 +19815,7 @@
       <c r="AD294" s="1"/>
       <c r="AE294" s="1"/>
       <c r="AF294" s="1"/>
-      <c r="AG294" s="12"/>
+      <c r="AG294" s="11"/>
       <c r="AH294" s="1"/>
       <c r="AI294" s="1"/>
       <c r="AJ294" s="1"/>
@@ -19852,7 +19867,7 @@
       <c r="AD295" s="1"/>
       <c r="AE295" s="1"/>
       <c r="AF295" s="1"/>
-      <c r="AG295" s="12"/>
+      <c r="AG295" s="11"/>
       <c r="AH295" s="1"/>
       <c r="AI295" s="1"/>
       <c r="AJ295" s="1"/>
@@ -19904,7 +19919,7 @@
       <c r="AD296" s="1"/>
       <c r="AE296" s="1"/>
       <c r="AF296" s="1"/>
-      <c r="AG296" s="12"/>
+      <c r="AG296" s="11"/>
       <c r="AH296" s="1"/>
       <c r="AI296" s="1"/>
       <c r="AJ296" s="1"/>
@@ -19956,7 +19971,7 @@
       <c r="AD297" s="1"/>
       <c r="AE297" s="1"/>
       <c r="AF297" s="1"/>
-      <c r="AG297" s="12"/>
+      <c r="AG297" s="11"/>
       <c r="AH297" s="1"/>
       <c r="AI297" s="1"/>
       <c r="AJ297" s="1"/>
@@ -20008,7 +20023,7 @@
       <c r="AD298" s="1"/>
       <c r="AE298" s="1"/>
       <c r="AF298" s="1"/>
-      <c r="AG298" s="12"/>
+      <c r="AG298" s="11"/>
       <c r="AH298" s="1"/>
       <c r="AI298" s="1"/>
       <c r="AJ298" s="1"/>
@@ -20060,7 +20075,7 @@
       <c r="AD299" s="1"/>
       <c r="AE299" s="1"/>
       <c r="AF299" s="1"/>
-      <c r="AG299" s="12"/>
+      <c r="AG299" s="11"/>
       <c r="AH299" s="1"/>
       <c r="AI299" s="1"/>
       <c r="AJ299" s="1"/>
@@ -20112,7 +20127,7 @@
       <c r="AD300" s="1"/>
       <c r="AE300" s="1"/>
       <c r="AF300" s="1"/>
-      <c r="AG300" s="12"/>
+      <c r="AG300" s="11"/>
       <c r="AH300" s="1"/>
       <c r="AI300" s="1"/>
       <c r="AJ300" s="1"/>
@@ -20164,7 +20179,7 @@
       <c r="AD301" s="1"/>
       <c r="AE301" s="1"/>
       <c r="AF301" s="1"/>
-      <c r="AG301" s="12"/>
+      <c r="AG301" s="11"/>
       <c r="AH301" s="1"/>
       <c r="AI301" s="1"/>
       <c r="AJ301" s="1"/>
@@ -20216,7 +20231,7 @@
       <c r="AD302" s="1"/>
       <c r="AE302" s="1"/>
       <c r="AF302" s="1"/>
-      <c r="AG302" s="12"/>
+      <c r="AG302" s="11"/>
       <c r="AH302" s="1"/>
       <c r="AI302" s="1"/>
       <c r="AJ302" s="1"/>
@@ -20268,7 +20283,7 @@
       <c r="AD303" s="1"/>
       <c r="AE303" s="1"/>
       <c r="AF303" s="1"/>
-      <c r="AG303" s="12"/>
+      <c r="AG303" s="11"/>
       <c r="AH303" s="1"/>
       <c r="AI303" s="1"/>
       <c r="AJ303" s="1"/>
@@ -20320,7 +20335,7 @@
       <c r="AD304" s="1"/>
       <c r="AE304" s="1"/>
       <c r="AF304" s="1"/>
-      <c r="AG304" s="12"/>
+      <c r="AG304" s="11"/>
       <c r="AH304" s="1"/>
       <c r="AI304" s="1"/>
       <c r="AJ304" s="1"/>
@@ -20372,7 +20387,7 @@
       <c r="AD305" s="1"/>
       <c r="AE305" s="1"/>
       <c r="AF305" s="1"/>
-      <c r="AG305" s="12"/>
+      <c r="AG305" s="11"/>
       <c r="AH305" s="1"/>
       <c r="AI305" s="1"/>
       <c r="AJ305" s="1"/>
@@ -20424,7 +20439,7 @@
       <c r="AD306" s="1"/>
       <c r="AE306" s="1"/>
       <c r="AF306" s="1"/>
-      <c r="AG306" s="12"/>
+      <c r="AG306" s="11"/>
       <c r="AH306" s="1"/>
       <c r="AI306" s="1"/>
       <c r="AJ306" s="1"/>
@@ -20476,7 +20491,7 @@
       <c r="AD307" s="1"/>
       <c r="AE307" s="1"/>
       <c r="AF307" s="1"/>
-      <c r="AG307" s="12"/>
+      <c r="AG307" s="11"/>
       <c r="AH307" s="1"/>
       <c r="AI307" s="1"/>
       <c r="AJ307" s="1"/>
@@ -20528,7 +20543,7 @@
       <c r="AD308" s="1"/>
       <c r="AE308" s="1"/>
       <c r="AF308" s="1"/>
-      <c r="AG308" s="12"/>
+      <c r="AG308" s="11"/>
       <c r="AH308" s="1"/>
       <c r="AI308" s="1"/>
       <c r="AJ308" s="1"/>
@@ -20580,7 +20595,7 @@
       <c r="AD309" s="1"/>
       <c r="AE309" s="1"/>
       <c r="AF309" s="1"/>
-      <c r="AG309" s="12"/>
+      <c r="AG309" s="11"/>
       <c r="AH309" s="1"/>
       <c r="AI309" s="1"/>
       <c r="AJ309" s="1"/>
@@ -20632,7 +20647,7 @@
       <c r="AD310" s="1"/>
       <c r="AE310" s="1"/>
       <c r="AF310" s="1"/>
-      <c r="AG310" s="12"/>
+      <c r="AG310" s="11"/>
       <c r="AH310" s="1"/>
       <c r="AI310" s="1"/>
       <c r="AJ310" s="1"/>
@@ -20684,7 +20699,7 @@
       <c r="AD311" s="1"/>
       <c r="AE311" s="1"/>
       <c r="AF311" s="1"/>
-      <c r="AG311" s="12"/>
+      <c r="AG311" s="11"/>
       <c r="AH311" s="1"/>
       <c r="AI311" s="1"/>
       <c r="AJ311" s="1"/>
@@ -20736,7 +20751,7 @@
       <c r="AD312" s="1"/>
       <c r="AE312" s="1"/>
       <c r="AF312" s="1"/>
-      <c r="AG312" s="12"/>
+      <c r="AG312" s="11"/>
       <c r="AH312" s="1"/>
       <c r="AI312" s="1"/>
       <c r="AJ312" s="1"/>
@@ -20788,7 +20803,7 @@
       <c r="AD313" s="1"/>
       <c r="AE313" s="1"/>
       <c r="AF313" s="1"/>
-      <c r="AG313" s="12"/>
+      <c r="AG313" s="11"/>
       <c r="AH313" s="1"/>
       <c r="AI313" s="1"/>
       <c r="AJ313" s="1"/>
@@ -20840,7 +20855,7 @@
       <c r="AD314" s="1"/>
       <c r="AE314" s="1"/>
       <c r="AF314" s="1"/>
-      <c r="AG314" s="12"/>
+      <c r="AG314" s="11"/>
       <c r="AH314" s="1"/>
       <c r="AI314" s="1"/>
       <c r="AJ314" s="1"/>
@@ -20892,7 +20907,7 @@
       <c r="AD315" s="1"/>
       <c r="AE315" s="1"/>
       <c r="AF315" s="1"/>
-      <c r="AG315" s="12"/>
+      <c r="AG315" s="11"/>
       <c r="AH315" s="1"/>
       <c r="AI315" s="1"/>
       <c r="AJ315" s="1"/>
@@ -20944,7 +20959,7 @@
       <c r="AD316" s="1"/>
       <c r="AE316" s="1"/>
       <c r="AF316" s="1"/>
-      <c r="AG316" s="12"/>
+      <c r="AG316" s="11"/>
       <c r="AH316" s="1"/>
       <c r="AI316" s="1"/>
       <c r="AJ316" s="1"/>
@@ -20996,7 +21011,7 @@
       <c r="AD317" s="1"/>
       <c r="AE317" s="1"/>
       <c r="AF317" s="1"/>
-      <c r="AG317" s="12"/>
+      <c r="AG317" s="11"/>
       <c r="AH317" s="1"/>
       <c r="AI317" s="1"/>
       <c r="AJ317" s="1"/>
@@ -21048,7 +21063,7 @@
       <c r="AD318" s="1"/>
       <c r="AE318" s="1"/>
       <c r="AF318" s="1"/>
-      <c r="AG318" s="12"/>
+      <c r="AG318" s="11"/>
       <c r="AH318" s="1"/>
       <c r="AI318" s="1"/>
       <c r="AJ318" s="1"/>
@@ -21100,7 +21115,7 @@
       <c r="AD319" s="1"/>
       <c r="AE319" s="1"/>
       <c r="AF319" s="1"/>
-      <c r="AG319" s="12"/>
+      <c r="AG319" s="11"/>
       <c r="AH319" s="1"/>
       <c r="AI319" s="1"/>
       <c r="AJ319" s="1"/>
@@ -21152,7 +21167,7 @@
       <c r="AD320" s="1"/>
       <c r="AE320" s="1"/>
       <c r="AF320" s="1"/>
-      <c r="AG320" s="12"/>
+      <c r="AG320" s="11"/>
       <c r="AH320" s="1"/>
       <c r="AI320" s="1"/>
       <c r="AJ320" s="1"/>
@@ -21204,7 +21219,7 @@
       <c r="AD321" s="1"/>
       <c r="AE321" s="1"/>
       <c r="AF321" s="1"/>
-      <c r="AG321" s="12"/>
+      <c r="AG321" s="11"/>
       <c r="AH321" s="1"/>
       <c r="AI321" s="1"/>
       <c r="AJ321" s="1"/>
@@ -21256,7 +21271,7 @@
       <c r="AD322" s="1"/>
       <c r="AE322" s="1"/>
       <c r="AF322" s="1"/>
-      <c r="AG322" s="12"/>
+      <c r="AG322" s="11"/>
       <c r="AH322" s="1"/>
       <c r="AI322" s="1"/>
       <c r="AJ322" s="1"/>
@@ -21308,7 +21323,7 @@
       <c r="AD323" s="1"/>
       <c r="AE323" s="1"/>
       <c r="AF323" s="1"/>
-      <c r="AG323" s="12"/>
+      <c r="AG323" s="11"/>
       <c r="AH323" s="1"/>
       <c r="AI323" s="1"/>
       <c r="AJ323" s="1"/>
@@ -21360,7 +21375,7 @@
       <c r="AD324" s="1"/>
       <c r="AE324" s="1"/>
       <c r="AF324" s="1"/>
-      <c r="AG324" s="12"/>
+      <c r="AG324" s="11"/>
       <c r="AH324" s="1"/>
       <c r="AI324" s="1"/>
       <c r="AJ324" s="1"/>
@@ -21412,7 +21427,7 @@
       <c r="AD325" s="1"/>
       <c r="AE325" s="1"/>
       <c r="AF325" s="1"/>
-      <c r="AG325" s="12"/>
+      <c r="AG325" s="11"/>
       <c r="AH325" s="1"/>
       <c r="AI325" s="1"/>
       <c r="AJ325" s="1"/>
@@ -21464,7 +21479,7 @@
       <c r="AD326" s="1"/>
       <c r="AE326" s="1"/>
       <c r="AF326" s="1"/>
-      <c r="AG326" s="12"/>
+      <c r="AG326" s="11"/>
       <c r="AH326" s="1"/>
       <c r="AI326" s="1"/>
       <c r="AJ326" s="1"/>
@@ -21516,7 +21531,7 @@
       <c r="AD327" s="1"/>
       <c r="AE327" s="1"/>
       <c r="AF327" s="1"/>
-      <c r="AG327" s="12"/>
+      <c r="AG327" s="11"/>
       <c r="AH327" s="1"/>
       <c r="AI327" s="1"/>
       <c r="AJ327" s="1"/>
@@ -21568,7 +21583,7 @@
       <c r="AD328" s="1"/>
       <c r="AE328" s="1"/>
       <c r="AF328" s="1"/>
-      <c r="AG328" s="12"/>
+      <c r="AG328" s="11"/>
       <c r="AH328" s="1"/>
       <c r="AI328" s="1"/>
       <c r="AJ328" s="1"/>
@@ -21620,7 +21635,7 @@
       <c r="AD329" s="1"/>
       <c r="AE329" s="1"/>
       <c r="AF329" s="1"/>
-      <c r="AG329" s="12"/>
+      <c r="AG329" s="11"/>
       <c r="AH329" s="1"/>
       <c r="AI329" s="1"/>
       <c r="AJ329" s="1"/>
@@ -21672,7 +21687,7 @@
       <c r="AD330" s="1"/>
       <c r="AE330" s="1"/>
       <c r="AF330" s="1"/>
-      <c r="AG330" s="12"/>
+      <c r="AG330" s="11"/>
       <c r="AH330" s="1"/>
       <c r="AI330" s="1"/>
       <c r="AJ330" s="1"/>
@@ -21724,7 +21739,7 @@
       <c r="AD331" s="1"/>
       <c r="AE331" s="1"/>
       <c r="AF331" s="1"/>
-      <c r="AG331" s="12"/>
+      <c r="AG331" s="11"/>
       <c r="AH331" s="1"/>
       <c r="AI331" s="1"/>
       <c r="AJ331" s="1"/>
@@ -21776,7 +21791,7 @@
       <c r="AD332" s="1"/>
       <c r="AE332" s="1"/>
       <c r="AF332" s="1"/>
-      <c r="AG332" s="12"/>
+      <c r="AG332" s="11"/>
       <c r="AH332" s="1"/>
       <c r="AI332" s="1"/>
       <c r="AJ332" s="1"/>
@@ -21828,7 +21843,7 @@
       <c r="AD333" s="1"/>
       <c r="AE333" s="1"/>
       <c r="AF333" s="1"/>
-      <c r="AG333" s="12"/>
+      <c r="AG333" s="11"/>
       <c r="AH333" s="1"/>
       <c r="AI333" s="1"/>
       <c r="AJ333" s="1"/>
@@ -21880,7 +21895,7 @@
       <c r="AD334" s="1"/>
       <c r="AE334" s="1"/>
       <c r="AF334" s="1"/>
-      <c r="AG334" s="12"/>
+      <c r="AG334" s="11"/>
       <c r="AH334" s="1"/>
       <c r="AI334" s="1"/>
       <c r="AJ334" s="1"/>
@@ -21932,7 +21947,7 @@
       <c r="AD335" s="1"/>
       <c r="AE335" s="1"/>
       <c r="AF335" s="1"/>
-      <c r="AG335" s="12"/>
+      <c r="AG335" s="11"/>
       <c r="AH335" s="1"/>
       <c r="AI335" s="1"/>
       <c r="AJ335" s="1"/>
@@ -21984,7 +21999,7 @@
       <c r="AD336" s="1"/>
       <c r="AE336" s="1"/>
       <c r="AF336" s="1"/>
-      <c r="AG336" s="12"/>
+      <c r="AG336" s="11"/>
       <c r="AH336" s="1"/>
       <c r="AI336" s="1"/>
       <c r="AJ336" s="1"/>
@@ -22036,7 +22051,7 @@
       <c r="AD337" s="1"/>
       <c r="AE337" s="1"/>
       <c r="AF337" s="1"/>
-      <c r="AG337" s="12"/>
+      <c r="AG337" s="11"/>
       <c r="AH337" s="1"/>
       <c r="AI337" s="1"/>
       <c r="AJ337" s="1"/>
@@ -22088,7 +22103,7 @@
       <c r="AD338" s="1"/>
       <c r="AE338" s="1"/>
       <c r="AF338" s="1"/>
-      <c r="AG338" s="12"/>
+      <c r="AG338" s="11"/>
       <c r="AH338" s="1"/>
       <c r="AI338" s="1"/>
       <c r="AJ338" s="1"/>
@@ -22140,7 +22155,7 @@
       <c r="AD339" s="1"/>
       <c r="AE339" s="1"/>
       <c r="AF339" s="1"/>
-      <c r="AG339" s="12"/>
+      <c r="AG339" s="11"/>
       <c r="AH339" s="1"/>
       <c r="AI339" s="1"/>
       <c r="AJ339" s="1"/>
@@ -22192,7 +22207,7 @@
       <c r="AD340" s="1"/>
       <c r="AE340" s="1"/>
       <c r="AF340" s="1"/>
-      <c r="AG340" s="12"/>
+      <c r="AG340" s="11"/>
       <c r="AH340" s="1"/>
       <c r="AI340" s="1"/>
       <c r="AJ340" s="1"/>
@@ -22244,7 +22259,7 @@
       <c r="AD341" s="1"/>
       <c r="AE341" s="1"/>
       <c r="AF341" s="1"/>
-      <c r="AG341" s="12"/>
+      <c r="AG341" s="11"/>
       <c r="AH341" s="1"/>
       <c r="AI341" s="1"/>
       <c r="AJ341" s="1"/>
@@ -22296,7 +22311,7 @@
       <c r="AD342" s="1"/>
       <c r="AE342" s="1"/>
       <c r="AF342" s="1"/>
-      <c r="AG342" s="12"/>
+      <c r="AG342" s="11"/>
       <c r="AH342" s="1"/>
       <c r="AI342" s="1"/>
       <c r="AJ342" s="1"/>
@@ -22348,7 +22363,7 @@
       <c r="AD343" s="1"/>
       <c r="AE343" s="1"/>
       <c r="AF343" s="1"/>
-      <c r="AG343" s="12"/>
+      <c r="AG343" s="11"/>
       <c r="AH343" s="1"/>
       <c r="AI343" s="1"/>
       <c r="AJ343" s="1"/>
@@ -22400,7 +22415,7 @@
       <c r="AD344" s="1"/>
       <c r="AE344" s="1"/>
       <c r="AF344" s="1"/>
-      <c r="AG344" s="12"/>
+      <c r="AG344" s="11"/>
       <c r="AH344" s="1"/>
       <c r="AI344" s="1"/>
       <c r="AJ344" s="1"/>
@@ -22452,7 +22467,7 @@
       <c r="AD345" s="1"/>
       <c r="AE345" s="1"/>
       <c r="AF345" s="1"/>
-      <c r="AG345" s="12"/>
+      <c r="AG345" s="11"/>
       <c r="AH345" s="1"/>
       <c r="AI345" s="1"/>
       <c r="AJ345" s="1"/>
@@ -22504,7 +22519,7 @@
       <c r="AD346" s="1"/>
       <c r="AE346" s="1"/>
       <c r="AF346" s="1"/>
-      <c r="AG346" s="12"/>
+      <c r="AG346" s="11"/>
       <c r="AH346" s="1"/>
       <c r="AI346" s="1"/>
       <c r="AJ346" s="1"/>
@@ -22556,7 +22571,7 @@
       <c r="AD347" s="1"/>
       <c r="AE347" s="1"/>
       <c r="AF347" s="1"/>
-      <c r="AG347" s="12"/>
+      <c r="AG347" s="11"/>
       <c r="AH347" s="1"/>
       <c r="AI347" s="1"/>
       <c r="AJ347" s="1"/>
@@ -22608,7 +22623,7 @@
       <c r="AD348" s="1"/>
       <c r="AE348" s="1"/>
       <c r="AF348" s="1"/>
-      <c r="AG348" s="12"/>
+      <c r="AG348" s="11"/>
       <c r="AH348" s="1"/>
       <c r="AI348" s="1"/>
       <c r="AJ348" s="1"/>
@@ -22660,7 +22675,7 @@
       <c r="AD349" s="1"/>
       <c r="AE349" s="1"/>
       <c r="AF349" s="1"/>
-      <c r="AG349" s="12"/>
+      <c r="AG349" s="11"/>
       <c r="AH349" s="1"/>
       <c r="AI349" s="1"/>
       <c r="AJ349" s="1"/>
@@ -22712,7 +22727,7 @@
       <c r="AD350" s="1"/>
       <c r="AE350" s="1"/>
       <c r="AF350" s="1"/>
-      <c r="AG350" s="12"/>
+      <c r="AG350" s="11"/>
       <c r="AH350" s="1"/>
       <c r="AI350" s="1"/>
       <c r="AJ350" s="1"/>
@@ -22764,7 +22779,7 @@
       <c r="AD351" s="1"/>
       <c r="AE351" s="1"/>
       <c r="AF351" s="1"/>
-      <c r="AG351" s="12"/>
+      <c r="AG351" s="11"/>
       <c r="AH351" s="1"/>
       <c r="AI351" s="1"/>
       <c r="AJ351" s="1"/>
@@ -22816,7 +22831,7 @@
       <c r="AD352" s="1"/>
       <c r="AE352" s="1"/>
       <c r="AF352" s="1"/>
-      <c r="AG352" s="12"/>
+      <c r="AG352" s="11"/>
       <c r="AH352" s="1"/>
       <c r="AI352" s="1"/>
       <c r="AJ352" s="1"/>
@@ -22868,7 +22883,7 @@
       <c r="AD353" s="1"/>
       <c r="AE353" s="1"/>
       <c r="AF353" s="1"/>
-      <c r="AG353" s="12"/>
+      <c r="AG353" s="11"/>
       <c r="AH353" s="1"/>
       <c r="AI353" s="1"/>
       <c r="AJ353" s="1"/>
@@ -22920,7 +22935,7 @@
       <c r="AD354" s="1"/>
       <c r="AE354" s="1"/>
       <c r="AF354" s="1"/>
-      <c r="AG354" s="12"/>
+      <c r="AG354" s="11"/>
       <c r="AH354" s="1"/>
       <c r="AI354" s="1"/>
       <c r="AJ354" s="1"/>
@@ -22972,7 +22987,7 @@
       <c r="AD355" s="1"/>
       <c r="AE355" s="1"/>
       <c r="AF355" s="1"/>
-      <c r="AG355" s="12"/>
+      <c r="AG355" s="11"/>
       <c r="AH355" s="1"/>
       <c r="AI355" s="1"/>
       <c r="AJ355" s="1"/>
@@ -23024,7 +23039,7 @@
       <c r="AD356" s="1"/>
       <c r="AE356" s="1"/>
       <c r="AF356" s="1"/>
-      <c r="AG356" s="12"/>
+      <c r="AG356" s="11"/>
       <c r="AH356" s="1"/>
       <c r="AI356" s="1"/>
       <c r="AJ356" s="1"/>
@@ -23076,7 +23091,7 @@
       <c r="AD357" s="1"/>
       <c r="AE357" s="1"/>
       <c r="AF357" s="1"/>
-      <c r="AG357" s="12"/>
+      <c r="AG357" s="11"/>
       <c r="AH357" s="1"/>
       <c r="AI357" s="1"/>
       <c r="AJ357" s="1"/>
@@ -23128,7 +23143,7 @@
       <c r="AD358" s="1"/>
       <c r="AE358" s="1"/>
       <c r="AF358" s="1"/>
-      <c r="AG358" s="12"/>
+      <c r="AG358" s="11"/>
       <c r="AH358" s="1"/>
       <c r="AI358" s="1"/>
       <c r="AJ358" s="1"/>
@@ -23180,7 +23195,7 @@
       <c r="AD359" s="1"/>
       <c r="AE359" s="1"/>
       <c r="AF359" s="1"/>
-      <c r="AG359" s="12"/>
+      <c r="AG359" s="11"/>
       <c r="AH359" s="1"/>
       <c r="AI359" s="1"/>
       <c r="AJ359" s="1"/>
@@ -23232,7 +23247,7 @@
       <c r="AD360" s="1"/>
       <c r="AE360" s="1"/>
       <c r="AF360" s="1"/>
-      <c r="AG360" s="12"/>
+      <c r="AG360" s="11"/>
       <c r="AH360" s="1"/>
       <c r="AI360" s="1"/>
       <c r="AJ360" s="1"/>
@@ -23284,7 +23299,7 @@
       <c r="AD361" s="1"/>
       <c r="AE361" s="1"/>
       <c r="AF361" s="1"/>
-      <c r="AG361" s="12"/>
+      <c r="AG361" s="11"/>
       <c r="AH361" s="1"/>
       <c r="AI361" s="1"/>
       <c r="AJ361" s="1"/>
@@ -23336,7 +23351,7 @@
       <c r="AD362" s="1"/>
       <c r="AE362" s="1"/>
       <c r="AF362" s="1"/>
-      <c r="AG362" s="12"/>
+      <c r="AG362" s="11"/>
       <c r="AH362" s="1"/>
       <c r="AI362" s="1"/>
       <c r="AJ362" s="1"/>
@@ -23388,7 +23403,7 @@
       <c r="AD363" s="1"/>
       <c r="AE363" s="1"/>
       <c r="AF363" s="1"/>
-      <c r="AG363" s="12"/>
+      <c r="AG363" s="11"/>
       <c r="AH363" s="1"/>
       <c r="AI363" s="1"/>
       <c r="AJ363" s="1"/>
@@ -23440,7 +23455,7 @@
       <c r="AD364" s="1"/>
       <c r="AE364" s="1"/>
       <c r="AF364" s="1"/>
-      <c r="AG364" s="12"/>
+      <c r="AG364" s="11"/>
       <c r="AH364" s="1"/>
       <c r="AI364" s="1"/>
       <c r="AJ364" s="1"/>
@@ -23492,7 +23507,7 @@
       <c r="AD365" s="1"/>
       <c r="AE365" s="1"/>
       <c r="AF365" s="1"/>
-      <c r="AG365" s="12"/>
+      <c r="AG365" s="11"/>
       <c r="AH365" s="1"/>
       <c r="AI365" s="1"/>
       <c r="AJ365" s="1"/>
@@ -23544,7 +23559,7 @@
       <c r="AD366" s="1"/>
       <c r="AE366" s="1"/>
       <c r="AF366" s="1"/>
-      <c r="AG366" s="12"/>
+      <c r="AG366" s="11"/>
       <c r="AH366" s="1"/>
       <c r="AI366" s="1"/>
       <c r="AJ366" s="1"/>
@@ -23596,7 +23611,7 @@
       <c r="AD367" s="1"/>
       <c r="AE367" s="1"/>
       <c r="AF367" s="1"/>
-      <c r="AG367" s="12"/>
+      <c r="AG367" s="11"/>
       <c r="AH367" s="1"/>
       <c r="AI367" s="1"/>
       <c r="AJ367" s="1"/>
@@ -23648,7 +23663,7 @@
       <c r="AD368" s="1"/>
       <c r="AE368" s="1"/>
       <c r="AF368" s="1"/>
-      <c r="AG368" s="12"/>
+      <c r="AG368" s="11"/>
       <c r="AH368" s="1"/>
       <c r="AI368" s="1"/>
       <c r="AJ368" s="1"/>
@@ -23700,7 +23715,7 @@
       <c r="AD369" s="1"/>
       <c r="AE369" s="1"/>
       <c r="AF369" s="1"/>
-      <c r="AG369" s="12"/>
+      <c r="AG369" s="11"/>
       <c r="AH369" s="1"/>
       <c r="AI369" s="1"/>
       <c r="AJ369" s="1"/>
@@ -23752,7 +23767,7 @@
       <c r="AD370" s="1"/>
       <c r="AE370" s="1"/>
       <c r="AF370" s="1"/>
-      <c r="AG370" s="12"/>
+      <c r="AG370" s="11"/>
       <c r="AH370" s="1"/>
       <c r="AI370" s="1"/>
       <c r="AJ370" s="1"/>
@@ -23804,7 +23819,7 @@
       <c r="AD371" s="1"/>
       <c r="AE371" s="1"/>
       <c r="AF371" s="1"/>
-      <c r="AG371" s="12"/>
+      <c r="AG371" s="11"/>
       <c r="AH371" s="1"/>
       <c r="AI371" s="1"/>
       <c r="AJ371" s="1"/>
@@ -23856,7 +23871,7 @@
       <c r="AD372" s="1"/>
       <c r="AE372" s="1"/>
       <c r="AF372" s="1"/>
-      <c r="AG372" s="12"/>
+      <c r="AG372" s="11"/>
       <c r="AH372" s="1"/>
       <c r="AI372" s="1"/>
       <c r="AJ372" s="1"/>
@@ -23908,7 +23923,7 @@
       <c r="AD373" s="1"/>
       <c r="AE373" s="1"/>
       <c r="AF373" s="1"/>
-      <c r="AG373" s="12"/>
+      <c r="AG373" s="11"/>
       <c r="AH373" s="1"/>
       <c r="AI373" s="1"/>
       <c r="AJ373" s="1"/>
@@ -23960,7 +23975,7 @@
       <c r="AD374" s="1"/>
       <c r="AE374" s="1"/>
       <c r="AF374" s="1"/>
-      <c r="AG374" s="12"/>
+      <c r="AG374" s="11"/>
       <c r="AH374" s="1"/>
       <c r="AI374" s="1"/>
       <c r="AJ374" s="1"/>
@@ -24012,7 +24027,7 @@
       <c r="AD375" s="1"/>
       <c r="AE375" s="1"/>
       <c r="AF375" s="1"/>
-      <c r="AG375" s="12"/>
+      <c r="AG375" s="11"/>
       <c r="AH375" s="1"/>
       <c r="AI375" s="1"/>
       <c r="AJ375" s="1"/>
@@ -24064,7 +24079,7 @@
       <c r="AD376" s="1"/>
       <c r="AE376" s="1"/>
       <c r="AF376" s="1"/>
-      <c r="AG376" s="12"/>
+      <c r="AG376" s="11"/>
       <c r="AH376" s="1"/>
       <c r="AI376" s="1"/>
       <c r="AJ376" s="1"/>
@@ -24116,7 +24131,7 @@
       <c r="AD377" s="1"/>
       <c r="AE377" s="1"/>
       <c r="AF377" s="1"/>
-      <c r="AG377" s="12"/>
+      <c r="AG377" s="11"/>
       <c r="AH377" s="1"/>
       <c r="AI377" s="1"/>
       <c r="AJ377" s="1"/>
@@ -24168,7 +24183,7 @@
       <c r="AD378" s="1"/>
       <c r="AE378" s="1"/>
       <c r="AF378" s="1"/>
-      <c r="AG378" s="12"/>
+      <c r="AG378" s="11"/>
       <c r="AH378" s="1"/>
       <c r="AI378" s="1"/>
       <c r="AJ378" s="1"/>
@@ -24220,7 +24235,7 @@
       <c r="AD379" s="1"/>
       <c r="AE379" s="1"/>
       <c r="AF379" s="1"/>
-      <c r="AG379" s="12"/>
+      <c r="AG379" s="11"/>
       <c r="AH379" s="1"/>
       <c r="AI379" s="1"/>
       <c r="AJ379" s="1"/>
@@ -24272,7 +24287,7 @@
       <c r="AD380" s="1"/>
       <c r="AE380" s="1"/>
       <c r="AF380" s="1"/>
-      <c r="AG380" s="12"/>
+      <c r="AG380" s="11"/>
       <c r="AH380" s="1"/>
       <c r="AI380" s="1"/>
       <c r="AJ380" s="1"/>
@@ -24324,7 +24339,7 @@
       <c r="AD381" s="1"/>
       <c r="AE381" s="1"/>
       <c r="AF381" s="1"/>
-      <c r="AG381" s="12"/>
+      <c r="AG381" s="11"/>
       <c r="AH381" s="1"/>
       <c r="AI381" s="1"/>
       <c r="AJ381" s="1"/>
@@ -24376,7 +24391,7 @@
       <c r="AD382" s="1"/>
       <c r="AE382" s="1"/>
       <c r="AF382" s="1"/>
-      <c r="AG382" s="12"/>
+      <c r="AG382" s="11"/>
       <c r="AH382" s="1"/>
       <c r="AI382" s="1"/>
       <c r="AJ382" s="1"/>
@@ -24428,7 +24443,7 @@
       <c r="AD383" s="1"/>
       <c r="AE383" s="1"/>
       <c r="AF383" s="1"/>
-      <c r="AG383" s="12"/>
+      <c r="AG383" s="11"/>
       <c r="AH383" s="1"/>
       <c r="AI383" s="1"/>
       <c r="AJ383" s="1"/>
@@ -24480,7 +24495,7 @@
       <c r="AD384" s="1"/>
       <c r="AE384" s="1"/>
       <c r="AF384" s="1"/>
-      <c r="AG384" s="12"/>
+      <c r="AG384" s="11"/>
       <c r="AH384" s="1"/>
       <c r="AI384" s="1"/>
       <c r="AJ384" s="1"/>
@@ -24532,7 +24547,7 @@
       <c r="AD385" s="1"/>
       <c r="AE385" s="1"/>
       <c r="AF385" s="1"/>
-      <c r="AG385" s="12"/>
+      <c r="AG385" s="11"/>
       <c r="AH385" s="1"/>
       <c r="AI385" s="1"/>
       <c r="AJ385" s="1"/>
@@ -24584,7 +24599,7 @@
       <c r="AD386" s="1"/>
       <c r="AE386" s="1"/>
       <c r="AF386" s="1"/>
-      <c r="AG386" s="12"/>
+      <c r="AG386" s="11"/>
       <c r="AH386" s="1"/>
       <c r="AI386" s="1"/>
       <c r="AJ386" s="1"/>
@@ -24636,7 +24651,7 @@
       <c r="AD387" s="1"/>
       <c r="AE387" s="1"/>
       <c r="AF387" s="1"/>
-      <c r="AG387" s="12"/>
+      <c r="AG387" s="11"/>
       <c r="AH387" s="1"/>
       <c r="AI387" s="1"/>
       <c r="AJ387" s="1"/>
@@ -24688,7 +24703,7 @@
       <c r="AD388" s="1"/>
       <c r="AE388" s="1"/>
       <c r="AF388" s="1"/>
-      <c r="AG388" s="12"/>
+      <c r="AG388" s="11"/>
       <c r="AH388" s="1"/>
       <c r="AI388" s="1"/>
       <c r="AJ388" s="1"/>
@@ -24740,7 +24755,7 @@
       <c r="AD389" s="1"/>
       <c r="AE389" s="1"/>
       <c r="AF389" s="1"/>
-      <c r="AG389" s="12"/>
+      <c r="AG389" s="11"/>
       <c r="AH389" s="1"/>
       <c r="AI389" s="1"/>
       <c r="AJ389" s="1"/>
@@ -24792,7 +24807,7 @@
       <c r="AD390" s="1"/>
       <c r="AE390" s="1"/>
       <c r="AF390" s="1"/>
-      <c r="AG390" s="12"/>
+      <c r="AG390" s="11"/>
       <c r="AH390" s="1"/>
       <c r="AI390" s="1"/>
       <c r="AJ390" s="1"/>
@@ -24844,7 +24859,7 @@
       <c r="AD391" s="1"/>
       <c r="AE391" s="1"/>
       <c r="AF391" s="1"/>
-      <c r="AG391" s="12"/>
+      <c r="AG391" s="11"/>
       <c r="AH391" s="1"/>
       <c r="AI391" s="1"/>
       <c r="AJ391" s="1"/>
@@ -24896,7 +24911,7 @@
       <c r="AD392" s="1"/>
       <c r="AE392" s="1"/>
       <c r="AF392" s="1"/>
-      <c r="AG392" s="12"/>
+      <c r="AG392" s="11"/>
       <c r="AH392" s="1"/>
       <c r="AI392" s="1"/>
       <c r="AJ392" s="1"/>
@@ -24948,7 +24963,7 @@
       <c r="AD393" s="1"/>
       <c r="AE393" s="1"/>
       <c r="AF393" s="1"/>
-      <c r="AG393" s="12"/>
+      <c r="AG393" s="11"/>
       <c r="AH393" s="1"/>
       <c r="AI393" s="1"/>
       <c r="AJ393" s="1"/>
@@ -25000,7 +25015,7 @@
       <c r="AD394" s="1"/>
       <c r="AE394" s="1"/>
       <c r="AF394" s="1"/>
-      <c r="AG394" s="12"/>
+      <c r="AG394" s="11"/>
       <c r="AH394" s="1"/>
       <c r="AI394" s="1"/>
       <c r="AJ394" s="1"/>
@@ -25052,7 +25067,7 @@
       <c r="AD395" s="1"/>
       <c r="AE395" s="1"/>
       <c r="AF395" s="1"/>
-      <c r="AG395" s="12"/>
+      <c r="AG395" s="11"/>
       <c r="AH395" s="1"/>
       <c r="AI395" s="1"/>
       <c r="AJ395" s="1"/>
@@ -25104,7 +25119,7 @@
       <c r="AD396" s="1"/>
       <c r="AE396" s="1"/>
       <c r="AF396" s="1"/>
-      <c r="AG396" s="12"/>
+      <c r="AG396" s="11"/>
       <c r="AH396" s="1"/>
       <c r="AI396" s="1"/>
       <c r="AJ396" s="1"/>
@@ -25156,7 +25171,7 @@
       <c r="AD397" s="1"/>
       <c r="AE397" s="1"/>
       <c r="AF397" s="1"/>
-      <c r="AG397" s="12"/>
+      <c r="AG397" s="11"/>
       <c r="AH397" s="1"/>
       <c r="AI397" s="1"/>
       <c r="AJ397" s="1"/>
@@ -25208,7 +25223,7 @@
       <c r="AD398" s="1"/>
       <c r="AE398" s="1"/>
       <c r="AF398" s="1"/>
-      <c r="AG398" s="12"/>
+      <c r="AG398" s="11"/>
       <c r="AH398" s="1"/>
       <c r="AI398" s="1"/>
       <c r="AJ398" s="1"/>
@@ -25260,7 +25275,7 @@
       <c r="AD399" s="1"/>
       <c r="AE399" s="1"/>
       <c r="AF399" s="1"/>
-      <c r="AG399" s="12"/>
+      <c r="AG399" s="11"/>
       <c r="AH399" s="1"/>
       <c r="AI399" s="1"/>
       <c r="AJ399" s="1"/>
@@ -25312,7 +25327,7 @@
       <c r="AD400" s="1"/>
       <c r="AE400" s="1"/>
       <c r="AF400" s="1"/>
-      <c r="AG400" s="12"/>
+      <c r="AG400" s="11"/>
       <c r="AH400" s="1"/>
       <c r="AI400" s="1"/>
       <c r="AJ400" s="1"/>
@@ -25364,7 +25379,7 @@
       <c r="AD401" s="1"/>
       <c r="AE401" s="1"/>
       <c r="AF401" s="1"/>
-      <c r="AG401" s="12"/>
+      <c r="AG401" s="11"/>
       <c r="AH401" s="1"/>
       <c r="AI401" s="1"/>
       <c r="AJ401" s="1"/>
@@ -25416,7 +25431,7 @@
       <c r="AD402" s="1"/>
       <c r="AE402" s="1"/>
       <c r="AF402" s="1"/>
-      <c r="AG402" s="12"/>
+      <c r="AG402" s="11"/>
       <c r="AH402" s="1"/>
       <c r="AI402" s="1"/>
       <c r="AJ402" s="1"/>
@@ -25468,7 +25483,7 @@
       <c r="AD403" s="1"/>
       <c r="AE403" s="1"/>
       <c r="AF403" s="1"/>
-      <c r="AG403" s="12"/>
+      <c r="AG403" s="11"/>
       <c r="AH403" s="1"/>
       <c r="AI403" s="1"/>
       <c r="AJ403" s="1"/>
@@ -25520,7 +25535,7 @@
       <c r="AD404" s="1"/>
       <c r="AE404" s="1"/>
       <c r="AF404" s="1"/>
-      <c r="AG404" s="12"/>
+      <c r="AG404" s="11"/>
       <c r="AH404" s="1"/>
       <c r="AI404" s="1"/>
       <c r="AJ404" s="1"/>
@@ -25572,7 +25587,7 @@
       <c r="AD405" s="1"/>
       <c r="AE405" s="1"/>
       <c r="AF405" s="1"/>
-      <c r="AG405" s="12"/>
+      <c r="AG405" s="11"/>
       <c r="AH405" s="1"/>
       <c r="AI405" s="1"/>
       <c r="AJ405" s="1"/>
@@ -25624,7 +25639,7 @@
       <c r="AD406" s="1"/>
       <c r="AE406" s="1"/>
       <c r="AF406" s="1"/>
-      <c r="AG406" s="12"/>
+      <c r="AG406" s="11"/>
       <c r="AH406" s="1"/>
       <c r="AI406" s="1"/>
       <c r="AJ406" s="1"/>
@@ -25676,7 +25691,7 @@
       <c r="AD407" s="1"/>
       <c r="AE407" s="1"/>
       <c r="AF407" s="1"/>
-      <c r="AG407" s="12"/>
+      <c r="AG407" s="11"/>
       <c r="AH407" s="1"/>
       <c r="AI407" s="1"/>
       <c r="AJ407" s="1"/>
@@ -25728,7 +25743,7 @@
       <c r="AD408" s="1"/>
       <c r="AE408" s="1"/>
       <c r="AF408" s="1"/>
-      <c r="AG408" s="12"/>
+      <c r="AG408" s="11"/>
       <c r="AH408" s="1"/>
       <c r="AI408" s="1"/>
       <c r="AJ408" s="1"/>
@@ -25780,7 +25795,7 @@
       <c r="AD409" s="1"/>
       <c r="AE409" s="1"/>
       <c r="AF409" s="1"/>
-      <c r="AG409" s="12"/>
+      <c r="AG409" s="11"/>
       <c r="AH409" s="1"/>
       <c r="AI409" s="1"/>
       <c r="AJ409" s="1"/>
@@ -25832,7 +25847,7 @@
       <c r="AD410" s="1"/>
       <c r="AE410" s="1"/>
       <c r="AF410" s="1"/>
-      <c r="AG410" s="12"/>
+      <c r="AG410" s="11"/>
       <c r="AH410" s="1"/>
       <c r="AI410" s="1"/>
       <c r="AJ410" s="1"/>
@@ -25884,7 +25899,7 @@
       <c r="AD411" s="1"/>
       <c r="AE411" s="1"/>
       <c r="AF411" s="1"/>
-      <c r="AG411" s="12"/>
+      <c r="AG411" s="11"/>
       <c r="AH411" s="1"/>
       <c r="AI411" s="1"/>
       <c r="AJ411" s="1"/>
@@ -25936,7 +25951,7 @@
       <c r="AD412" s="1"/>
       <c r="AE412" s="1"/>
       <c r="AF412" s="1"/>
-      <c r="AG412" s="12"/>
+      <c r="AG412" s="11"/>
       <c r="AH412" s="1"/>
       <c r="AI412" s="1"/>
       <c r="AJ412" s="1"/>
@@ -25988,7 +26003,7 @@
       <c r="AD413" s="1"/>
       <c r="AE413" s="1"/>
       <c r="AF413" s="1"/>
-      <c r="AG413" s="12"/>
+      <c r="AG413" s="11"/>
       <c r="AH413" s="1"/>
       <c r="AI413" s="1"/>
       <c r="AJ413" s="1"/>
@@ -26040,7 +26055,7 @@
       <c r="AD414" s="1"/>
       <c r="AE414" s="1"/>
       <c r="AF414" s="1"/>
-      <c r="AG414" s="12"/>
+      <c r="AG414" s="11"/>
       <c r="AH414" s="1"/>
       <c r="AI414" s="1"/>
       <c r="AJ414" s="1"/>
@@ -26092,7 +26107,7 @@
       <c r="AD415" s="1"/>
       <c r="AE415" s="1"/>
       <c r="AF415" s="1"/>
-      <c r="AG415" s="12"/>
+      <c r="AG415" s="11"/>
       <c r="AH415" s="1"/>
       <c r="AI415" s="1"/>
       <c r="AJ415" s="1"/>
@@ -26144,7 +26159,7 @@
       <c r="AD416" s="1"/>
       <c r="AE416" s="1"/>
       <c r="AF416" s="1"/>
-      <c r="AG416" s="12"/>
+      <c r="AG416" s="11"/>
       <c r="AH416" s="1"/>
       <c r="AI416" s="1"/>
       <c r="AJ416" s="1"/>
@@ -26196,7 +26211,7 @@
       <c r="AD417" s="1"/>
       <c r="AE417" s="1"/>
       <c r="AF417" s="1"/>
-      <c r="AG417" s="12"/>
+      <c r="AG417" s="11"/>
       <c r="AH417" s="1"/>
       <c r="AI417" s="1"/>
       <c r="AJ417" s="1"/>
@@ -26248,7 +26263,7 @@
       <c r="AD418" s="1"/>
       <c r="AE418" s="1"/>
       <c r="AF418" s="1"/>
-      <c r="AG418" s="12"/>
+      <c r="AG418" s="11"/>
       <c r="AH418" s="1"/>
       <c r="AI418" s="1"/>
       <c r="AJ418" s="1"/>
@@ -26300,7 +26315,7 @@
       <c r="AD419" s="1"/>
       <c r="AE419" s="1"/>
       <c r="AF419" s="1"/>
-      <c r="AG419" s="12"/>
+      <c r="AG419" s="11"/>
       <c r="AH419" s="1"/>
       <c r="AI419" s="1"/>
       <c r="AJ419" s="1"/>
@@ -26352,7 +26367,7 @@
       <c r="AD420" s="1"/>
       <c r="AE420" s="1"/>
       <c r="AF420" s="1"/>
-      <c r="AG420" s="12"/>
+      <c r="AG420" s="11"/>
       <c r="AH420" s="1"/>
       <c r="AI420" s="1"/>
       <c r="AJ420" s="1"/>
@@ -26404,7 +26419,7 @@
       <c r="AD421" s="1"/>
       <c r="AE421" s="1"/>
       <c r="AF421" s="1"/>
-      <c r="AG421" s="12"/>
+      <c r="AG421" s="11"/>
       <c r="AH421" s="1"/>
       <c r="AI421" s="1"/>
       <c r="AJ421" s="1"/>
@@ -26456,7 +26471,7 @@
       <c r="AD422" s="1"/>
       <c r="AE422" s="1"/>
       <c r="AF422" s="1"/>
-      <c r="AG422" s="12"/>
+      <c r="AG422" s="11"/>
       <c r="AH422" s="1"/>
       <c r="AI422" s="1"/>
       <c r="AJ422" s="1"/>
@@ -26508,7 +26523,7 @@
       <c r="AD423" s="1"/>
       <c r="AE423" s="1"/>
       <c r="AF423" s="1"/>
-      <c r="AG423" s="12"/>
+      <c r="AG423" s="11"/>
       <c r="AH423" s="1"/>
       <c r="AI423" s="1"/>
       <c r="AJ423" s="1"/>
@@ -26560,7 +26575,7 @@
       <c r="AD424" s="1"/>
       <c r="AE424" s="1"/>
       <c r="AF424" s="1"/>
-      <c r="AG424" s="12"/>
+      <c r="AG424" s="11"/>
       <c r="AH424" s="1"/>
       <c r="AI424" s="1"/>
       <c r="AJ424" s="1"/>
@@ -26612,7 +26627,7 @@
       <c r="AD425" s="1"/>
       <c r="AE425" s="1"/>
       <c r="AF425" s="1"/>
-      <c r="AG425" s="12"/>
+      <c r="AG425" s="11"/>
       <c r="AH425" s="1"/>
       <c r="AI425" s="1"/>
       <c r="AJ425" s="1"/>
@@ -26664,7 +26679,7 @@
       <c r="AD426" s="1"/>
       <c r="AE426" s="1"/>
       <c r="AF426" s="1"/>
-      <c r="AG426" s="12"/>
+      <c r="AG426" s="11"/>
       <c r="AH426" s="1"/>
       <c r="AI426" s="1"/>
       <c r="AJ426" s="1"/>
@@ -26716,7 +26731,7 @@
       <c r="AD427" s="1"/>
       <c r="AE427" s="1"/>
       <c r="AF427" s="1"/>
-      <c r="AG427" s="12"/>
+      <c r="AG427" s="11"/>
       <c r="AH427" s="1"/>
       <c r="AI427" s="1"/>
       <c r="AJ427" s="1"/>
@@ -26768,7 +26783,7 @@
       <c r="AD428" s="1"/>
       <c r="AE428" s="1"/>
       <c r="AF428" s="1"/>
-      <c r="AG428" s="12"/>
+      <c r="AG428" s="11"/>
       <c r="AH428" s="1"/>
       <c r="AI428" s="1"/>
       <c r="AJ428" s="1"/>
@@ -26820,7 +26835,7 @@
       <c r="AD429" s="1"/>
       <c r="AE429" s="1"/>
       <c r="AF429" s="1"/>
-      <c r="AG429" s="12"/>
+      <c r="AG429" s="11"/>
       <c r="AH429" s="1"/>
       <c r="AI429" s="1"/>
       <c r="AJ429" s="1"/>
@@ -26872,7 +26887,7 @@
       <c r="AD430" s="1"/>
       <c r="AE430" s="1"/>
       <c r="AF430" s="1"/>
-      <c r="AG430" s="12"/>
+      <c r="AG430" s="11"/>
       <c r="AH430" s="1"/>
       <c r="AI430" s="1"/>
       <c r="AJ430" s="1"/>
@@ -26924,7 +26939,7 @@
       <c r="AD431" s="1"/>
       <c r="AE431" s="1"/>
       <c r="AF431" s="1"/>
-      <c r="AG431" s="12"/>
+      <c r="AG431" s="11"/>
       <c r="AH431" s="1"/>
       <c r="AI431" s="1"/>
       <c r="AJ431" s="1"/>
@@ -26976,7 +26991,7 @@
       <c r="AD432" s="1"/>
       <c r="AE432" s="1"/>
       <c r="AF432" s="1"/>
-      <c r="AG432" s="12"/>
+      <c r="AG432" s="11"/>
       <c r="AH432" s="1"/>
       <c r="AI432" s="1"/>
       <c r="AJ432" s="1"/>
@@ -27028,7 +27043,7 @@
       <c r="AD433" s="1"/>
       <c r="AE433" s="1"/>
       <c r="AF433" s="1"/>
-      <c r="AG433" s="12"/>
+      <c r="AG433" s="11"/>
       <c r="AH433" s="1"/>
       <c r="AI433" s="1"/>
       <c r="AJ433" s="1"/>
@@ -27080,7 +27095,7 @@
       <c r="AD434" s="1"/>
       <c r="AE434" s="1"/>
       <c r="AF434" s="1"/>
-      <c r="AG434" s="12"/>
+      <c r="AG434" s="11"/>
       <c r="AH434" s="1"/>
       <c r="AI434" s="1"/>
       <c r="AJ434" s="1"/>
@@ -27132,7 +27147,7 @@
       <c r="AD435" s="1"/>
       <c r="AE435" s="1"/>
       <c r="AF435" s="1"/>
-      <c r="AG435" s="12"/>
+      <c r="AG435" s="11"/>
       <c r="AH435" s="1"/>
       <c r="AI435" s="1"/>
       <c r="AJ435" s="1"/>
@@ -27184,7 +27199,7 @@
       <c r="AD436" s="1"/>
       <c r="AE436" s="1"/>
       <c r="AF436" s="1"/>
-      <c r="AG436" s="12"/>
+      <c r="AG436" s="11"/>
       <c r="AH436" s="1"/>
       <c r="AI436" s="1"/>
       <c r="AJ436" s="1"/>
@@ -27236,7 +27251,7 @@
       <c r="AD437" s="1"/>
       <c r="AE437" s="1"/>
       <c r="AF437" s="1"/>
-      <c r="AG437" s="12"/>
+      <c r="AG437" s="11"/>
       <c r="AH437" s="1"/>
       <c r="AI437" s="1"/>
       <c r="AJ437" s="1"/>
@@ -27288,7 +27303,7 @@
       <c r="AD438" s="1"/>
       <c r="AE438" s="1"/>
       <c r="AF438" s="1"/>
-      <c r="AG438" s="12"/>
+      <c r="AG438" s="11"/>
       <c r="AH438" s="1"/>
       <c r="AI438" s="1"/>
       <c r="AJ438" s="1"/>
@@ -27340,7 +27355,7 @@
       <c r="AD439" s="1"/>
       <c r="AE439" s="1"/>
       <c r="AF439" s="1"/>
-      <c r="AG439" s="12"/>
+      <c r="AG439" s="11"/>
       <c r="AH439" s="1"/>
       <c r="AI439" s="1"/>
       <c r="AJ439" s="1"/>
@@ -27392,7 +27407,7 @@
       <c r="AD440" s="1"/>
       <c r="AE440" s="1"/>
       <c r="AF440" s="1"/>
-      <c r="AG440" s="12"/>
+      <c r="AG440" s="11"/>
       <c r="AH440" s="1"/>
       <c r="AI440" s="1"/>
       <c r="AJ440" s="1"/>
@@ -27444,7 +27459,7 @@
       <c r="AD441" s="1"/>
       <c r="AE441" s="1"/>
       <c r="AF441" s="1"/>
-      <c r="AG441" s="12"/>
+      <c r="AG441" s="11"/>
       <c r="AH441" s="1"/>
       <c r="AI441" s="1"/>
       <c r="AJ441" s="1"/>
@@ -27496,7 +27511,7 @@
       <c r="AD442" s="1"/>
       <c r="AE442" s="1"/>
       <c r="AF442" s="1"/>
-      <c r="AG442" s="12"/>
+      <c r="AG442" s="11"/>
       <c r="AH442" s="1"/>
       <c r="AI442" s="1"/>
       <c r="AJ442" s="1"/>
@@ -27548,7 +27563,7 @@
       <c r="AD443" s="1"/>
       <c r="AE443" s="1"/>
       <c r="AF443" s="1"/>
-      <c r="AG443" s="12"/>
+      <c r="AG443" s="11"/>
       <c r="AH443" s="1"/>
       <c r="AI443" s="1"/>
       <c r="AJ443" s="1"/>
@@ -27600,7 +27615,7 @@
       <c r="AD444" s="1"/>
       <c r="AE444" s="1"/>
       <c r="AF444" s="1"/>
-      <c r="AG444" s="12"/>
+      <c r="AG444" s="11"/>
       <c r="AH444" s="1"/>
       <c r="AI444" s="1"/>
       <c r="AJ444" s="1"/>
@@ -27652,7 +27667,7 @@
       <c r="AD445" s="1"/>
       <c r="AE445" s="1"/>
       <c r="AF445" s="1"/>
-      <c r="AG445" s="12"/>
+      <c r="AG445" s="11"/>
       <c r="AH445" s="1"/>
       <c r="AI445" s="1"/>
       <c r="AJ445" s="1"/>
@@ -27704,7 +27719,7 @@
       <c r="AD446" s="1"/>
       <c r="AE446" s="1"/>
       <c r="AF446" s="1"/>
-      <c r="AG446" s="12"/>
+      <c r="AG446" s="11"/>
       <c r="AH446" s="1"/>
       <c r="AI446" s="1"/>
       <c r="AJ446" s="1"/>
@@ -27756,7 +27771,7 @@
       <c r="AD447" s="1"/>
       <c r="AE447" s="1"/>
       <c r="AF447" s="1"/>
-      <c r="AG447" s="12"/>
+      <c r="AG447" s="11"/>
       <c r="AH447" s="1"/>
       <c r="AI447" s="1"/>
       <c r="AJ447" s="1"/>
@@ -27808,7 +27823,7 @@
       <c r="AD448" s="1"/>
       <c r="AE448" s="1"/>
       <c r="AF448" s="1"/>
-      <c r="AG448" s="12"/>
+      <c r="AG448" s="11"/>
       <c r="AH448" s="1"/>
       <c r="AI448" s="1"/>
       <c r="AJ448" s="1"/>
@@ -27860,7 +27875,7 @@
       <c r="AD449" s="1"/>
       <c r="AE449" s="1"/>
       <c r="AF449" s="1"/>
-      <c r="AG449" s="12"/>
+      <c r="AG449" s="11"/>
       <c r="AH449" s="1"/>
       <c r="AI449" s="1"/>
       <c r="AJ449" s="1"/>
@@ -27912,7 +27927,7 @@
       <c r="AD450" s="1"/>
       <c r="AE450" s="1"/>
       <c r="AF450" s="1"/>
-      <c r="AG450" s="12"/>
+      <c r="AG450" s="11"/>
       <c r="AH450" s="1"/>
       <c r="AI450" s="1"/>
       <c r="AJ450" s="1"/>
@@ -27964,7 +27979,7 @@
       <c r="AD451" s="1"/>
       <c r="AE451" s="1"/>
       <c r="AF451" s="1"/>
-      <c r="AG451" s="12"/>
+      <c r="AG451" s="11"/>
       <c r="AH451" s="1"/>
       <c r="AI451" s="1"/>
       <c r="AJ451" s="1"/>
@@ -28016,7 +28031,7 @@
       <c r="AD452" s="1"/>
       <c r="AE452" s="1"/>
       <c r="AF452" s="1"/>
-      <c r="AG452" s="12"/>
+      <c r="AG452" s="11"/>
       <c r="AH452" s="1"/>
       <c r="AI452" s="1"/>
       <c r="AJ452" s="1"/>
@@ -28068,7 +28083,7 @@
       <c r="AD453" s="1"/>
       <c r="AE453" s="1"/>
       <c r="AF453" s="1"/>
-      <c r="AG453" s="12"/>
+      <c r="AG453" s="11"/>
       <c r="AH453" s="1"/>
       <c r="AI453" s="1"/>
       <c r="AJ453" s="1"/>
@@ -28120,7 +28135,7 @@
       <c r="AD454" s="1"/>
       <c r="AE454" s="1"/>
       <c r="AF454" s="1"/>
-      <c r="AG454" s="12"/>
+      <c r="AG454" s="11"/>
       <c r="AH454" s="1"/>
       <c r="AI454" s="1"/>
       <c r="AJ454" s="1"/>
@@ -28172,7 +28187,7 @@
       <c r="AD455" s="1"/>
       <c r="AE455" s="1"/>
       <c r="AF455" s="1"/>
-      <c r="AG455" s="12"/>
+      <c r="AG455" s="11"/>
       <c r="AH455" s="1"/>
       <c r="AI455" s="1"/>
       <c r="AJ455" s="1"/>
@@ -28224,7 +28239,7 @@
       <c r="AD456" s="1"/>
       <c r="AE456" s="1"/>
       <c r="AF456" s="1"/>
-      <c r="AG456" s="12"/>
+      <c r="AG456" s="11"/>
       <c r="AH456" s="1"/>
       <c r="AI456" s="1"/>
       <c r="AJ456" s="1"/>
@@ -28276,7 +28291,7 @@
       <c r="AD457" s="1"/>
       <c r="AE457" s="1"/>
       <c r="AF457" s="1"/>
-      <c r="AG457" s="12"/>
+      <c r="AG457" s="11"/>
       <c r="AH457" s="1"/>
       <c r="AI457" s="1"/>
       <c r="AJ457" s="1"/>
@@ -28328,7 +28343,7 @@
       <c r="AD458" s="1"/>
       <c r="AE458" s="1"/>
       <c r="AF458" s="1"/>
-      <c r="AG458" s="12"/>
+      <c r="AG458" s="11"/>
       <c r="AH458" s="1"/>
       <c r="AI458" s="1"/>
       <c r="AJ458" s="1"/>
@@ -28380,7 +28395,7 @@
       <c r="AD459" s="1"/>
       <c r="AE459" s="1"/>
       <c r="AF459" s="1"/>
-      <c r="AG459" s="12"/>
+      <c r="AG459" s="11"/>
       <c r="AH459" s="1"/>
       <c r="AI459" s="1"/>
       <c r="AJ459" s="1"/>
@@ -28432,7 +28447,7 @@
       <c r="AD460" s="1"/>
       <c r="AE460" s="1"/>
       <c r="AF460" s="1"/>
-      <c r="AG460" s="12"/>
+      <c r="AG460" s="11"/>
       <c r="AH460" s="1"/>
       <c r="AI460" s="1"/>
       <c r="AJ460" s="1"/>
@@ -28484,7 +28499,7 @@
       <c r="AD461" s="1"/>
       <c r="AE461" s="1"/>
       <c r="AF461" s="1"/>
-      <c r="AG461" s="12"/>
+      <c r="AG461" s="11"/>
       <c r="AH461" s="1"/>
       <c r="AI461" s="1"/>
       <c r="AJ461" s="1"/>
@@ -28536,7 +28551,7 @@
       <c r="AD462" s="1"/>
       <c r="AE462" s="1"/>
       <c r="AF462" s="1"/>
-      <c r="AG462" s="12"/>
+      <c r="AG462" s="11"/>
       <c r="AH462" s="1"/>
       <c r="AI462" s="1"/>
       <c r="AJ462" s="1"/>
@@ -28588,7 +28603,7 @@
       <c r="AD463" s="1"/>
       <c r="AE463" s="1"/>
       <c r="AF463" s="1"/>
-      <c r="AG463" s="12"/>
+      <c r="AG463" s="11"/>
       <c r="AH463" s="1"/>
       <c r="AI463" s="1"/>
       <c r="AJ463" s="1"/>
@@ -28640,7 +28655,7 @@
       <c r="AD464" s="1"/>
       <c r="AE464" s="1"/>
       <c r="AF464" s="1"/>
-      <c r="AG464" s="12"/>
+      <c r="AG464" s="11"/>
       <c r="AH464" s="1"/>
       <c r="AI464" s="1"/>
       <c r="AJ464" s="1"/>
@@ -28692,7 +28707,7 @@
       <c r="AD465" s="1"/>
       <c r="AE465" s="1"/>
       <c r="AF465" s="1"/>
-      <c r="AG465" s="12"/>
+      <c r="AG465" s="11"/>
       <c r="AH465" s="1"/>
       <c r="AI465" s="1"/>
       <c r="AJ465" s="1"/>
@@ -28744,7 +28759,7 @@
       <c r="AD466" s="1"/>
       <c r="AE466" s="1"/>
       <c r="AF466" s="1"/>
-      <c r="AG466" s="12"/>
+      <c r="AG466" s="11"/>
       <c r="AH466" s="1"/>
       <c r="AI466" s="1"/>
       <c r="AJ466" s="1"/>
@@ -28796,7 +28811,7 @@
       <c r="AD467" s="1"/>
       <c r="AE467" s="1"/>
       <c r="AF467" s="1"/>
-      <c r="AG467" s="12"/>
+      <c r="AG467" s="11"/>
       <c r="AH467" s="1"/>
       <c r="AI467" s="1"/>
       <c r="AJ467" s="1"/>
@@ -28848,7 +28863,7 @@
       <c r="AD468" s="1"/>
       <c r="AE468" s="1"/>
       <c r="AF468" s="1"/>
-      <c r="AG468" s="12"/>
+      <c r="AG468" s="11"/>
       <c r="AH468" s="1"/>
       <c r="AI468" s="1"/>
       <c r="AJ468" s="1"/>
@@ -28900,7 +28915,7 @@
       <c r="AD469" s="1"/>
       <c r="AE469" s="1"/>
       <c r="AF469" s="1"/>
-      <c r="AG469" s="12"/>
+      <c r="AG469" s="11"/>
       <c r="AH469" s="1"/>
       <c r="AI469" s="1"/>
       <c r="AJ469" s="1"/>
@@ -28952,7 +28967,7 @@
       <c r="AD470" s="1"/>
       <c r="AE470" s="1"/>
       <c r="AF470" s="1"/>
-      <c r="AG470" s="12"/>
+      <c r="AG470" s="11"/>
       <c r="AH470" s="1"/>
       <c r="AI470" s="1"/>
       <c r="AJ470" s="1"/>
@@ -29004,7 +29019,7 @@
       <c r="AD471" s="1"/>
       <c r="AE471" s="1"/>
       <c r="AF471" s="1"/>
-      <c r="AG471" s="12"/>
+      <c r="AG471" s="11"/>
       <c r="AH471" s="1"/>
       <c r="AI471" s="1"/>
       <c r="AJ471" s="1"/>
@@ -29056,7 +29071,7 @@
       <c r="AD472" s="1"/>
       <c r="AE472" s="1"/>
       <c r="AF472" s="1"/>
-      <c r="AG472" s="12"/>
+      <c r="AG472" s="11"/>
       <c r="AH472" s="1"/>
       <c r="AI472" s="1"/>
       <c r="AJ472" s="1"/>
@@ -29108,7 +29123,7 @@
       <c r="AD473" s="1"/>
       <c r="AE473" s="1"/>
       <c r="AF473" s="1"/>
-      <c r="AG473" s="12"/>
+      <c r="AG473" s="11"/>
       <c r="AH473" s="1"/>
       <c r="AI473" s="1"/>
       <c r="AJ473" s="1"/>
@@ -29160,7 +29175,7 @@
       <c r="AD474" s="1"/>
       <c r="AE474" s="1"/>
       <c r="AF474" s="1"/>
-      <c r="AG474" s="12"/>
+      <c r="AG474" s="11"/>
       <c r="AH474" s="1"/>
       <c r="AI474" s="1"/>
       <c r="AJ474" s="1"/>
@@ -29212,7 +29227,7 @@
       <c r="AD475" s="1"/>
       <c r="AE475" s="1"/>
       <c r="AF475" s="1"/>
-      <c r="AG475" s="12"/>
+      <c r="AG475" s="11"/>
       <c r="AH475" s="1"/>
       <c r="AI475" s="1"/>
       <c r="AJ475" s="1"/>
@@ -29264,7 +29279,7 @@
       <c r="AD476" s="1"/>
       <c r="AE476" s="1"/>
       <c r="AF476" s="1"/>
-      <c r="AG476" s="12"/>
+      <c r="AG476" s="11"/>
       <c r="AH476" s="1"/>
       <c r="AI476" s="1"/>
       <c r="AJ476" s="1"/>
@@ -29316,7 +29331,7 @@
       <c r="AD477" s="1"/>
       <c r="AE477" s="1"/>
       <c r="AF477" s="1"/>
-      <c r="AG477" s="12"/>
+      <c r="AG477" s="11"/>
       <c r="AH477" s="1"/>
       <c r="AI477" s="1"/>
       <c r="AJ477" s="1"/>
@@ -29368,7 +29383,7 @@
       <c r="AD478" s="1"/>
       <c r="AE478" s="1"/>
       <c r="AF478" s="1"/>
-      <c r="AG478" s="12"/>
+      <c r="AG478" s="11"/>
       <c r="AH478" s="1"/>
       <c r="AI478" s="1"/>
       <c r="AJ478" s="1"/>
@@ -29420,7 +29435,7 @@
       <c r="AD479" s="1"/>
       <c r="AE479" s="1"/>
       <c r="AF479" s="1"/>
-      <c r="AG479" s="12"/>
+      <c r="AG479" s="11"/>
       <c r="AH479" s="1"/>
       <c r="AI479" s="1"/>
       <c r="AJ479" s="1"/>
@@ -29472,7 +29487,7 @@
       <c r="AD480" s="1"/>
       <c r="AE480" s="1"/>
       <c r="AF480" s="1"/>
-      <c r="AG480" s="12"/>
+      <c r="AG480" s="11"/>
       <c r="AH480" s="1"/>
       <c r="AI480" s="1"/>
       <c r="AJ480" s="1"/>
@@ -29524,7 +29539,7 @@
       <c r="AD481" s="1"/>
       <c r="AE481" s="1"/>
       <c r="AF481" s="1"/>
-      <c r="AG481" s="12"/>
+      <c r="AG481" s="11"/>
       <c r="AH481" s="1"/>
       <c r="AI481" s="1"/>
       <c r="AJ481" s="1"/>
@@ -29576,7 +29591,7 @@
       <c r="AD482" s="1"/>
       <c r="AE482" s="1"/>
       <c r="AF482" s="1"/>
-      <c r="AG482" s="12"/>
+      <c r="AG482" s="11"/>
       <c r="AH482" s="1"/>
       <c r="AI482" s="1"/>
       <c r="AJ482" s="1"/>
@@ -29628,7 +29643,7 @@
       <c r="AD483" s="1"/>
       <c r="AE483" s="1"/>
       <c r="AF483" s="1"/>
-      <c r="AG483" s="12"/>
+      <c r="AG483" s="11"/>
       <c r="AH483" s="1"/>
       <c r="AI483" s="1"/>
       <c r="AJ483" s="1"/>
@@ -29680,7 +29695,7 @@
       <c r="AD484" s="1"/>
       <c r="AE484" s="1"/>
       <c r="AF484" s="1"/>
-      <c r="AG484" s="12"/>
+      <c r="AG484" s="11"/>
       <c r="AH484" s="1"/>
       <c r="AI484" s="1"/>
       <c r="AJ484" s="1"/>
@@ -29732,7 +29747,7 @@
       <c r="AD485" s="1"/>
       <c r="AE485" s="1"/>
       <c r="AF485" s="1"/>
-      <c r="AG485" s="12"/>
+      <c r="AG485" s="11"/>
       <c r="AH485" s="1"/>
       <c r="AI485" s="1"/>
       <c r="AJ485" s="1"/>
@@ -29784,7 +29799,7 @@
       <c r="AD486" s="1"/>
       <c r="AE486" s="1"/>
       <c r="AF486" s="1"/>
-      <c r="AG486" s="12"/>
+      <c r="AG486" s="11"/>
       <c r="AH486" s="1"/>
       <c r="AI486" s="1"/>
       <c r="AJ486" s="1"/>
@@ -29836,7 +29851,7 @@
       <c r="AD487" s="1"/>
       <c r="AE487" s="1"/>
       <c r="AF487" s="1"/>
-      <c r="AG487" s="12"/>
+      <c r="AG487" s="11"/>
       <c r="AH487" s="1"/>
       <c r="AI487" s="1"/>
       <c r="AJ487" s="1"/>
@@ -29888,7 +29903,7 @@
       <c r="AD488" s="1"/>
       <c r="AE488" s="1"/>
       <c r="AF488" s="1"/>
-      <c r="AG488" s="12"/>
+      <c r="AG488" s="11"/>
       <c r="AH488" s="1"/>
       <c r="AI488" s="1"/>
       <c r="AJ488" s="1"/>
@@ -29940,7 +29955,7 @@
       <c r="AD489" s="1"/>
       <c r="AE489" s="1"/>
       <c r="AF489" s="1"/>
-      <c r="AG489" s="12"/>
+      <c r="AG489" s="11"/>
       <c r="AH489" s="1"/>
       <c r="AI489" s="1"/>
       <c r="AJ489" s="1"/>
@@ -29992,7 +30007,7 @@
       <c r="AD490" s="1"/>
       <c r="AE490" s="1"/>
       <c r="AF490" s="1"/>
-      <c r="AG490" s="12"/>
+      <c r="AG490" s="11"/>
       <c r="AH490" s="1"/>
       <c r="AI490" s="1"/>
       <c r="AJ490" s="1"/>
@@ -30044,7 +30059,7 @@
       <c r="AD491" s="1"/>
       <c r="AE491" s="1"/>
       <c r="AF491" s="1"/>
-      <c r="AG491" s="12"/>
+      <c r="AG491" s="11"/>
       <c r="AH491" s="1"/>
       <c r="AI491" s="1"/>
       <c r="AJ491" s="1"/>
@@ -30096,7 +30111,7 @@
       <c r="AD492" s="1"/>
       <c r="AE492" s="1"/>
       <c r="AF492" s="1"/>
-      <c r="AG492" s="12"/>
+      <c r="AG492" s="11"/>
       <c r="AH492" s="1"/>
       <c r="AI492" s="1"/>
       <c r="AJ492" s="1"/>
@@ -30148,7 +30163,7 @@
       <c r="AD493" s="1"/>
       <c r="AE493" s="1"/>
       <c r="AF493" s="1"/>
-      <c r="AG493" s="12"/>
+      <c r="AG493" s="11"/>
       <c r="AH493" s="1"/>
       <c r="AI493" s="1"/>
       <c r="AJ493" s="1"/>
@@ -30200,7 +30215,7 @@
       <c r="AD494" s="1"/>
       <c r="AE494" s="1"/>
       <c r="AF494" s="1"/>
-      <c r="AG494" s="12"/>
+      <c r="AG494" s="11"/>
       <c r="AH494" s="1"/>
       <c r="AI494" s="1"/>
       <c r="AJ494" s="1"/>
@@ -30252,7 +30267,7 @@
       <c r="AD495" s="1"/>
       <c r="AE495" s="1"/>
       <c r="AF495" s="1"/>
-      <c r="AG495" s="12"/>
+      <c r="AG495" s="11"/>
       <c r="AH495" s="1"/>
       <c r="AI495" s="1"/>
       <c r="AJ495" s="1"/>
@@ -30304,7 +30319,7 @@
       <c r="AD496" s="1"/>
       <c r="AE496" s="1"/>
       <c r="AF496" s="1"/>
-      <c r="AG496" s="12"/>
+      <c r="AG496" s="11"/>
       <c r="AH496" s="1"/>
       <c r="AI496" s="1"/>
       <c r="AJ496" s="1"/>
@@ -30356,7 +30371,7 @@
       <c r="AD497" s="1"/>
       <c r="AE497" s="1"/>
       <c r="AF497" s="1"/>
-      <c r="AG497" s="12"/>
+      <c r="AG497" s="11"/>
       <c r="AH497" s="1"/>
       <c r="AI497" s="1"/>
       <c r="AJ497" s="1"/>
@@ -30408,7 +30423,7 @@
       <c r="AD498" s="1"/>
       <c r="AE498" s="1"/>
       <c r="AF498" s="1"/>
-      <c r="AG498" s="12"/>
+      <c r="AG498" s="11"/>
       <c r="AH498" s="1"/>
       <c r="AI498" s="1"/>
       <c r="AJ498" s="1"/>
@@ -30460,7 +30475,7 @@
       <c r="AD499" s="1"/>
       <c r="AE499" s="1"/>
       <c r="AF499" s="1"/>
-      <c r="AG499" s="12"/>
+      <c r="AG499" s="11"/>
       <c r="AH499" s="1"/>
       <c r="AI499" s="1"/>
       <c r="AJ499" s="1"/>
@@ -30512,7 +30527,7 @@
       <c r="AD500" s="1"/>
       <c r="AE500" s="1"/>
       <c r="AF500" s="1"/>
-      <c r="AG500" s="12"/>
+      <c r="AG500" s="11"/>
       <c r="AH500" s="1"/>
       <c r="AI500" s="1"/>
       <c r="AJ500" s="1"/>
